--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Win7 Software\eclipse\workspace\SeleniumWebDriverDemo\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-510" yWindow="3525" windowWidth="20610" windowHeight="9300" tabRatio="422" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -17,12 +22,12 @@
     <definedName name="Data" localSheetId="0">#REF!</definedName>
     <definedName name="Data">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="635">
   <si>
     <t>Purchase Order Number:</t>
   </si>
@@ -1941,11 +1946,23 @@
   <si>
     <t>Empty</t>
   </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Ngthkk53</t>
+  </si>
+  <si>
+    <t>Gcsvn123</t>
+  </si>
+  <si>
+    <t>uk0001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
@@ -3750,117 +3767,7 @@
     <cellStyle name="Обычный_DTV 2007 11 1 Projects" xfId="74"/>
     <cellStyle name="Обычный_HR20_DTV_TimeSheet - Jun-09" xfId="75"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4204,6 +4111,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4809,7 +4719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4841,9 +4751,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4875,6 +4786,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5050,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -44077,31 +43989,31 @@
     <mergeCell ref="X5:AC5"/>
   </mergeCells>
   <conditionalFormatting sqref="AN22:AO22 AO19:AO21 AN152:AO187 AN23:AN149 AO23:AO151">
-    <cfRule type="cellIs" dxfId="45" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN21">
-    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN150">
-    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN151:AO151">
-    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AO187">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -44109,11 +44021,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AB17">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:Z17">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AS19" r:id="rId1"/>
@@ -44216,240 +44128,413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="25.5">
-      <c r="A1" s="61">
-        <v>130</v>
-      </c>
-      <c r="B1" s="62">
-        <v>128</v>
-      </c>
-      <c r="C1" s="130" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" s="130" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="130" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="213" t="s">
-        <v>624</v>
+      <c r="B1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1" s="205">
+        <v>463637</v>
+      </c>
+      <c r="D1" s="205">
+        <v>463637</v>
+      </c>
+      <c r="E1" s="205">
+        <v>463637</v>
       </c>
       <c r="F1" s="205">
-        <v>463637</v>
+        <v>0</v>
       </c>
       <c r="G1" s="205">
         <v>463637</v>
       </c>
-      <c r="H1" s="205">
-        <v>463637</v>
-      </c>
-      <c r="I1" s="205">
-        <v>0</v>
+      <c r="H1" s="205" t="s">
+        <v>631</v>
+      </c>
+      <c r="I1" s="205" t="s">
+        <v>631</v>
       </c>
       <c r="J1" s="205">
         <v>463637</v>
       </c>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
+      <c r="K1" s="205">
+        <v>463637</v>
+      </c>
+      <c r="L1" s="205">
+        <v>0</v>
+      </c>
       <c r="M1" s="205">
-        <v>463637</v>
+        <v>455555</v>
       </c>
       <c r="N1" s="205">
         <v>463637</v>
       </c>
-      <c r="O1" s="205">
-        <v>0</v>
-      </c>
-      <c r="P1" s="205">
-        <v>463637</v>
+      <c r="O1" s="205" t="s">
+        <v>631</v>
+      </c>
+      <c r="P1" s="205" t="s">
+        <v>631</v>
       </c>
       <c r="Q1" s="205">
         <v>463637</v>
       </c>
-      <c r="R1" s="205"/>
-      <c r="S1" s="205"/>
+      <c r="R1" s="205">
+        <v>463637</v>
+      </c>
+      <c r="S1" s="205">
+        <v>463637</v>
+      </c>
       <c r="T1" s="205">
         <v>463637</v>
       </c>
       <c r="U1" s="205">
+        <v>0</v>
+      </c>
+      <c r="V1" s="205" t="s">
+        <v>631</v>
+      </c>
+      <c r="W1" s="205" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="130" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="205">
         <v>463637</v>
       </c>
-      <c r="V1" s="205">
+      <c r="D2" s="205">
         <v>463637</v>
       </c>
-      <c r="W1" s="205">
+      <c r="E2" s="205">
         <v>463637</v>
       </c>
-      <c r="X1" s="205">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="25.5">
-      <c r="A2" s="61">
-        <v>130</v>
-      </c>
-      <c r="B2" s="62">
-        <v>128</v>
-      </c>
-      <c r="C2" s="130" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="130" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" s="213" t="s">
-        <v>624</v>
-      </c>
       <c r="F2" s="205">
-        <v>463637</v>
+        <v>0</v>
       </c>
       <c r="G2" s="205">
         <v>463637</v>
       </c>
-      <c r="H2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="I2" s="205">
-        <v>0</v>
+      <c r="H2" s="205" t="s">
+        <v>631</v>
+      </c>
+      <c r="I2" s="205" t="s">
+        <v>631</v>
       </c>
       <c r="J2" s="205">
         <v>463637</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
+      <c r="K2" s="205">
+        <v>463637</v>
+      </c>
+      <c r="L2" s="205">
+        <v>0</v>
+      </c>
       <c r="M2" s="205">
         <v>463637</v>
       </c>
       <c r="N2" s="205">
         <v>463637</v>
       </c>
-      <c r="O2" s="205">
-        <v>0</v>
-      </c>
-      <c r="P2" s="205">
-        <v>463637</v>
+      <c r="O2" s="205" t="s">
+        <v>631</v>
+      </c>
+      <c r="P2" s="205" t="s">
+        <v>631</v>
       </c>
       <c r="Q2" s="205">
         <v>463637</v>
       </c>
-      <c r="R2" s="205"/>
-      <c r="S2" s="205"/>
+      <c r="R2" s="205">
+        <v>463637</v>
+      </c>
+      <c r="S2" s="205">
+        <v>463637</v>
+      </c>
       <c r="T2" s="205">
         <v>463637</v>
       </c>
       <c r="U2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="V2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="W2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="X2" s="205">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" t="s">
-        <v>630</v>
+        <v>0</v>
+      </c>
+      <c r="V2" s="205" t="s">
+        <v>631</v>
+      </c>
+      <c r="W2" s="205" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange password="CA53" sqref="A1:A2" name="Staff and Projects_2_52_3_3_2_1_1_1_1"/>
-    <protectedRange password="CA53" sqref="C1:C2" name="Staff and Projects_2_52_1_5_2_4_1_1_1_1_1_1_2_1"/>
-    <protectedRange password="CA53" sqref="E1:E2" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2"/>
-    <protectedRange password="CA53" sqref="D1:D2" name="Staff and Projects_2_52_1_5_2_4_1_1_1_1_1_1_2_1_2"/>
+    <protectedRange password="CA53" sqref="A1:A2" name="Staff and Projects_2_52_1_5_2_4_1_1_1_1_1_1_2_1_2"/>
   </protectedRanges>
-  <conditionalFormatting sqref="F1:Z1">
-    <cfRule type="cellIs" dxfId="2" priority="24" operator="lessThan">
+  <conditionalFormatting sqref="C1:U1">
+    <cfRule type="cellIs" dxfId="27" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:Z1">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="Q1:U1">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:L1">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="C1:I1">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:S1">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="J1:P1">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:Z2">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="C2:G2 J2:N2 Q2:U2">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:Z2">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="Q2:U2">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:L2">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C2:G2">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S2">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J2:N2">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44461,7 +44546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -56158,16 +56243,16 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="Y137:Z137 T170:Z171 Y169:Z169 T94:Z136 Y93:Z93 T138:Z168 F4:Z92">
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:Z92 T94:Z101 Y93:Z93">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56175,16 +56260,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:H93 K93:L93 F94:L171">
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:L92 F94:L101 F93:H93 K93:L93">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56194,9 +56279,9 @@
   <conditionalFormatting sqref="I137:J137">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56204,21 +56289,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T169:X169">
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T93:X93">
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T93:X93">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56226,16 +56311,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:J93">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:J93">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56243,16 +56328,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M138:S168 R137:S137 M170:S171 R169:S169 M94:S136 R93:S93">
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:S92 M94:S101 R93:S93">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56260,16 +56345,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137:Q137">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137:Q137">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56277,21 +56362,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M169:Q169">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93:Q93">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93:Q93">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56299,16 +56384,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137:U137">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137:U137">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56316,7 +56401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V137:X137">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56325,7 +56410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64607,21 +64692,21 @@
     <protectedRange password="CA53" sqref="J80:L81 J66:L68 F87:G87 J47:L47 H62 K166:L166 J42:L42 J49:L63 H59 F60:H61 F63:H63 F88:H89 J83:L85 F84:H84 F79:L79 F83:G83 F80:H81 J73:L78 J70:L71 F74:H74 G75:H75 F76:H78 J44:L45 H73 F70:H71 F66:H68 F55:H57 F51:H53 F49:H49 F47:H47 F43:I43 F44:H45 F42:H42 F39:H40 J39:L40 F91:H98 J88:L89 I134:J134 J91:L98 M134:Q134 F90:Q90" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="F1:Q89">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:H90 K90:L90 F91:L168">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:L89 F91:L98 F90:H90 K90:L90">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64631,9 +64716,9 @@
   <conditionalFormatting sqref="I134:J134">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64641,16 +64726,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:J90">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:J90">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64658,16 +64743,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135:Q165 M167:Q168 M91:Q133">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:Q89 M91:Q98">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64675,16 +64760,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64692,21 +64777,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M166:Q166">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90:Q90">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90:Q90">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Win7 Software\eclipse\workspace\SeleniumWebDriverDemo\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-510" yWindow="3525" windowWidth="20610" windowHeight="9300" tabRatio="422" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -22,7 +17,7 @@
     <definedName name="Data" localSheetId="0">#REF!</definedName>
     <definedName name="Data">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1962,7 +1957,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
@@ -3624,40 +3619,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="31" borderId="21" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="31" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3673,11 +3634,45 @@
     <xf numFmtId="0" fontId="65" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="31" borderId="21" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="31" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -3767,7 +3762,27 @@
     <cellStyle name="Обычный_DTV 2007 11 1 Projects" xfId="74"/>
     <cellStyle name="Обычный_HR20_DTV_TimeSheet - Jun-09" xfId="75"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4719,7 +4734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4751,10 +4766,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4786,7 +4800,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4962,7 +4975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -5034,25 +5047,25 @@
       <c r="T1" s="173"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="222" t="s">
+      <c r="W1" s="229" t="s">
         <v>269</v>
       </c>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="223"/>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="224"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="230"/>
+      <c r="AA1" s="230"/>
+      <c r="AB1" s="230"/>
+      <c r="AC1" s="231"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="225" t="s">
+      <c r="AF1" s="232" t="s">
         <v>269</v>
       </c>
-      <c r="AG1" s="225"/>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="225"/>
-      <c r="AJ1" s="225"/>
-      <c r="AK1" s="225"/>
+      <c r="AG1" s="232"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="232"/>
+      <c r="AJ1" s="232"/>
+      <c r="AK1" s="232"/>
       <c r="AL1" s="147"/>
       <c r="AM1" s="147"/>
       <c r="AN1" s="2"/>
@@ -5076,17 +5089,17 @@
       <c r="K2" s="112" t="s">
         <v>544</v>
       </c>
-      <c r="L2" s="216" t="s">
+      <c r="L2" s="226" t="s">
         <v>375</v>
       </c>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="227"/>
+      <c r="T2" s="228"/>
       <c r="U2" s="104">
         <v>1</v>
       </c>
@@ -5145,17 +5158,17 @@
       <c r="K3" s="112" t="s">
         <v>543</v>
       </c>
-      <c r="L3" s="216" t="s">
+      <c r="L3" s="226" t="s">
         <v>376</v>
       </c>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="218"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="228"/>
       <c r="U3" s="104">
         <v>2</v>
       </c>
@@ -5211,17 +5224,17 @@
       <c r="K4" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="L4" s="216" t="s">
+      <c r="L4" s="226" t="s">
         <v>271</v>
       </c>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
-      <c r="T4" s="218"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="227"/>
+      <c r="O4" s="227"/>
+      <c r="P4" s="227"/>
+      <c r="Q4" s="227"/>
+      <c r="R4" s="227"/>
+      <c r="S4" s="227"/>
+      <c r="T4" s="228"/>
       <c r="U4" s="104">
         <v>3</v>
       </c>
@@ -5260,11 +5273,11 @@
       <c r="AX4" s="9"/>
     </row>
     <row r="5" spans="1:87" s="47" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="225"/>
       <c r="D5" s="192"/>
       <c r="E5" s="192"/>
       <c r="F5" s="101" t="s">
@@ -5277,17 +5290,17 @@
       <c r="K5" s="112" t="s">
         <v>547</v>
       </c>
-      <c r="L5" s="216" t="s">
+      <c r="L5" s="226" t="s">
         <v>272</v>
       </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="218"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="227"/>
+      <c r="O5" s="227"/>
+      <c r="P5" s="227"/>
+      <c r="Q5" s="227"/>
+      <c r="R5" s="227"/>
+      <c r="S5" s="227"/>
+      <c r="T5" s="228"/>
       <c r="U5" s="104">
         <v>4</v>
       </c>
@@ -5326,11 +5339,11 @@
       <c r="AX5" s="9"/>
     </row>
     <row r="6" spans="1:87" s="47" customFormat="1" ht="12.2" customHeight="1" outlineLevel="1">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="215"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="225"/>
       <c r="D6" s="192"/>
       <c r="E6" s="192"/>
       <c r="F6" s="101" t="s">
@@ -5343,17 +5356,17 @@
       <c r="K6" s="112" t="s">
         <v>546</v>
       </c>
-      <c r="L6" s="216" t="s">
+      <c r="L6" s="226" t="s">
         <v>273</v>
       </c>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="217"/>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="217"/>
-      <c r="S6" s="217"/>
-      <c r="T6" s="218"/>
+      <c r="M6" s="227"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="227"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="228"/>
       <c r="U6" s="104">
         <v>5</v>
       </c>
@@ -5437,17 +5450,17 @@
       <c r="K7" s="143" t="s">
         <v>545</v>
       </c>
-      <c r="L7" s="228" t="s">
+      <c r="L7" s="216" t="s">
         <v>359</v>
       </c>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="229"/>
-      <c r="R7" s="229"/>
-      <c r="S7" s="229"/>
-      <c r="T7" s="230"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="217"/>
+      <c r="P7" s="217"/>
+      <c r="Q7" s="217"/>
+      <c r="R7" s="217"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="218"/>
       <c r="U7" s="104">
         <v>6</v>
       </c>
@@ -5892,9 +5905,9 @@
       <c r="CI11" s="20"/>
     </row>
     <row r="12" spans="1:87" s="47" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1">
-      <c r="A12" s="231"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="232"/>
+      <c r="A12" s="222"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="223"/>
       <c r="D12" s="190"/>
       <c r="E12" s="190"/>
       <c r="F12" s="153" t="s">
@@ -5991,9 +6004,9 @@
       <c r="CI12" s="20"/>
     </row>
     <row r="13" spans="1:87" s="47" customFormat="1" ht="12.2" customHeight="1">
-      <c r="A13" s="214"/>
-      <c r="B13" s="214"/>
-      <c r="C13" s="215"/>
+      <c r="A13" s="224"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="225"/>
       <c r="D13" s="192"/>
       <c r="E13" s="192"/>
       <c r="F13" s="101"/>
@@ -6459,7 +6472,7 @@
       <c r="A17" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="226" t="s">
+      <c r="B17" s="214" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -6609,7 +6622,7 @@
     </row>
     <row r="18" spans="1:192" s="50" customFormat="1" ht="13.7" customHeight="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="227"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -43961,18 +43974,6 @@
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="L7:T7"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="L8:T8"/>
-    <mergeCell ref="L10:T10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="X13:AC13"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="X6:AC6"/>
@@ -43987,33 +43988,45 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="L7:T7"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="L10:T10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="X13:AC13"/>
   </mergeCells>
   <conditionalFormatting sqref="AN22:AO22 AO19:AO21 AN152:AO187 AN23:AN149 AO23:AO151">
-    <cfRule type="cellIs" dxfId="34" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN21">
-    <cfRule type="cellIs" dxfId="33" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN150">
-    <cfRule type="cellIs" dxfId="32" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN151:AO151">
-    <cfRule type="cellIs" dxfId="31" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AO187">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -44021,11 +44034,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AB17">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:Z17">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AS19" r:id="rId1"/>
@@ -44128,11 +44141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44174,8 +44187,8 @@
       <c r="L1" s="205">
         <v>0</v>
       </c>
-      <c r="M1" s="205">
-        <v>455555</v>
+      <c r="M1" s="156">
+        <v>463074</v>
       </c>
       <c r="N1" s="205">
         <v>463637</v>
@@ -44300,16 +44313,16 @@
     <protectedRange password="CA53" sqref="A1:A2" name="Staff and Projects_2_52_1_5_2_4_1_1_1_1_1_1_2_1_2"/>
   </protectedRanges>
   <conditionalFormatting sqref="C1:U1">
-    <cfRule type="cellIs" dxfId="27" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:U1">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44317,11 +44330,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:I1">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44329,11 +44342,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:P1">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44341,16 +44354,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:G2 J2:N2 Q2:U2">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:U2">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44358,11 +44371,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:G2">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44370,11 +44383,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:N2">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44382,16 +44395,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44399,16 +44412,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44416,11 +44429,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44428,11 +44441,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44440,16 +44453,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44457,16 +44470,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44474,16 +44487,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44491,16 +44504,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44508,16 +44521,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -44525,20 +44538,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44546,11 +44564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Z171"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44649,7 +44667,7 @@
       <c r="A2" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -56243,16 +56261,16 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="Y137:Z137 T170:Z171 Y169:Z169 T94:Z136 Y93:Z93 T138:Z168 F4:Z92">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:Z92 T94:Z101 Y93:Z93">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56260,16 +56278,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:H93 K93:L93 F94:L171">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:L92 F94:L101 F93:H93 K93:L93">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56279,9 +56297,9 @@
   <conditionalFormatting sqref="I137:J137">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56289,21 +56307,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T169:X169">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T93:X93">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T93:X93">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56311,16 +56329,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:J93">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:J93">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56328,16 +56346,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M138:S168 R137:S137 M170:S171 R169:S169 M94:S136 R93:S93">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:S92 M94:S101 R93:S93">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56345,16 +56363,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137:Q137">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137:Q137">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56362,21 +56380,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M169:Q169">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93:Q93">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93:Q93">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56384,16 +56402,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137:U137">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137:U137">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -56401,7 +56419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V137:X137">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56410,7 +56428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64692,21 +64710,21 @@
     <protectedRange password="CA53" sqref="J80:L81 J66:L68 F87:G87 J47:L47 H62 K166:L166 J42:L42 J49:L63 H59 F60:H61 F63:H63 F88:H89 J83:L85 F84:H84 F79:L79 F83:G83 F80:H81 J73:L78 J70:L71 F74:H74 G75:H75 F76:H78 J44:L45 H73 F70:H71 F66:H68 F55:H57 F51:H53 F49:H49 F47:H47 F43:I43 F44:H45 F42:H42 F39:H40 J39:L40 F91:H98 J88:L89 I134:J134 J91:L98 M134:Q134 F90:Q90" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="F1:Q89">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:H90 K90:L90 F91:L168">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:L89 F91:L98 F90:H90 K90:L90">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64716,9 +64734,9 @@
   <conditionalFormatting sqref="I134:J134">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64726,16 +64744,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:J90">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:J90">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64743,16 +64761,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135:Q165 M167:Q168 M91:Q133">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:Q89 M91:Q98">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64760,16 +64778,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -64777,21 +64795,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M166:Q166">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90:Q90">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90:Q90">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="636">
   <si>
     <t>Purchase Order Number:</t>
   </si>
@@ -1936,22 +1936,25 @@
     <t>Huynh</t>
   </si>
   <si>
-    <t>Learn7inux</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>Ngthkk53</t>
   </si>
   <si>
     <t>Gcsvn123</t>
   </si>
   <si>
-    <t>uk0001</t>
+    <t>Dtv@#1989</t>
+  </si>
+  <si>
+    <t>[Huyhoang]121314</t>
+  </si>
+  <si>
+    <t>AdidaPhat12#</t>
+  </si>
+  <si>
+    <t>tt795r</t>
+  </si>
+  <si>
+    <t>Quynhhoa12!</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1973,7 @@
     <numFmt numFmtId="172" formatCode="[$-3009]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="173" formatCode="ddd"/>
   </numFmts>
-  <fonts count="77">
+  <fonts count="80">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -2466,8 +2469,28 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2703,8 +2726,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2992,6 +3039,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3086,7 +3148,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="74" applyFont="1"/>
     <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3619,6 +3681,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="31" borderId="21" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="31" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3634,45 +3730,11 @@
     <xf numFmtId="0" fontId="65" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="31" borderId="21" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="31" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -3682,6 +3744,30 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="27" borderId="18" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="43" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="76">
@@ -3762,7 +3848,957 @@
     <cellStyle name="Обычный_DTV 2007 11 1 Projects" xfId="74"/>
     <cellStyle name="Обычный_HR20_DTV_TimeSheet - Jun-09" xfId="75"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="132">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5047,25 +6083,25 @@
       <c r="T1" s="173"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="229" t="s">
+      <c r="W1" s="222" t="s">
         <v>269</v>
       </c>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="230"/>
-      <c r="AA1" s="230"/>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="231"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="223"/>
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="224"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="232" t="s">
+      <c r="AF1" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="232"/>
-      <c r="AJ1" s="232"/>
-      <c r="AK1" s="232"/>
+      <c r="AG1" s="225"/>
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="225"/>
+      <c r="AJ1" s="225"/>
+      <c r="AK1" s="225"/>
       <c r="AL1" s="147"/>
       <c r="AM1" s="147"/>
       <c r="AN1" s="2"/>
@@ -5089,17 +6125,17 @@
       <c r="K2" s="112" t="s">
         <v>544</v>
       </c>
-      <c r="L2" s="226" t="s">
+      <c r="L2" s="216" t="s">
         <v>375</v>
       </c>
-      <c r="M2" s="227"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="228"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
       <c r="U2" s="104">
         <v>1</v>
       </c>
@@ -5158,17 +6194,17 @@
       <c r="K3" s="112" t="s">
         <v>543</v>
       </c>
-      <c r="L3" s="226" t="s">
+      <c r="L3" s="216" t="s">
         <v>376</v>
       </c>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="217"/>
+      <c r="T3" s="218"/>
       <c r="U3" s="104">
         <v>2</v>
       </c>
@@ -5224,17 +6260,17 @@
       <c r="K4" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="L4" s="226" t="s">
+      <c r="L4" s="216" t="s">
         <v>271</v>
       </c>
-      <c r="M4" s="227"/>
-      <c r="N4" s="227"/>
-      <c r="O4" s="227"/>
-      <c r="P4" s="227"/>
-      <c r="Q4" s="227"/>
-      <c r="R4" s="227"/>
-      <c r="S4" s="227"/>
-      <c r="T4" s="228"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="218"/>
       <c r="U4" s="104">
         <v>3</v>
       </c>
@@ -5273,11 +6309,11 @@
       <c r="AX4" s="9"/>
     </row>
     <row r="5" spans="1:87" s="47" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="225"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215"/>
       <c r="D5" s="192"/>
       <c r="E5" s="192"/>
       <c r="F5" s="101" t="s">
@@ -5290,17 +6326,17 @@
       <c r="K5" s="112" t="s">
         <v>547</v>
       </c>
-      <c r="L5" s="226" t="s">
+      <c r="L5" s="216" t="s">
         <v>272</v>
       </c>
-      <c r="M5" s="227"/>
-      <c r="N5" s="227"/>
-      <c r="O5" s="227"/>
-      <c r="P5" s="227"/>
-      <c r="Q5" s="227"/>
-      <c r="R5" s="227"/>
-      <c r="S5" s="227"/>
-      <c r="T5" s="228"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="218"/>
       <c r="U5" s="104">
         <v>4</v>
       </c>
@@ -5339,11 +6375,11 @@
       <c r="AX5" s="9"/>
     </row>
     <row r="6" spans="1:87" s="47" customFormat="1" ht="12.2" customHeight="1" outlineLevel="1">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="225"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="215"/>
       <c r="D6" s="192"/>
       <c r="E6" s="192"/>
       <c r="F6" s="101" t="s">
@@ -5356,17 +6392,17 @@
       <c r="K6" s="112" t="s">
         <v>546</v>
       </c>
-      <c r="L6" s="226" t="s">
+      <c r="L6" s="216" t="s">
         <v>273</v>
       </c>
-      <c r="M6" s="227"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="227"/>
-      <c r="P6" s="227"/>
-      <c r="Q6" s="227"/>
-      <c r="R6" s="227"/>
-      <c r="S6" s="227"/>
-      <c r="T6" s="228"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="217"/>
+      <c r="O6" s="217"/>
+      <c r="P6" s="217"/>
+      <c r="Q6" s="217"/>
+      <c r="R6" s="217"/>
+      <c r="S6" s="217"/>
+      <c r="T6" s="218"/>
       <c r="U6" s="104">
         <v>5</v>
       </c>
@@ -5450,17 +6486,17 @@
       <c r="K7" s="143" t="s">
         <v>545</v>
       </c>
-      <c r="L7" s="216" t="s">
+      <c r="L7" s="228" t="s">
         <v>359</v>
       </c>
-      <c r="M7" s="217"/>
-      <c r="N7" s="217"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="217"/>
-      <c r="R7" s="217"/>
-      <c r="S7" s="217"/>
-      <c r="T7" s="218"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="230"/>
       <c r="U7" s="104">
         <v>6</v>
       </c>
@@ -5905,9 +6941,9 @@
       <c r="CI11" s="20"/>
     </row>
     <row r="12" spans="1:87" s="47" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1">
-      <c r="A12" s="222"/>
-      <c r="B12" s="222"/>
-      <c r="C12" s="223"/>
+      <c r="A12" s="231"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="190"/>
       <c r="E12" s="190"/>
       <c r="F12" s="153" t="s">
@@ -6004,9 +7040,9 @@
       <c r="CI12" s="20"/>
     </row>
     <row r="13" spans="1:87" s="47" customFormat="1" ht="12.2" customHeight="1">
-      <c r="A13" s="224"/>
-      <c r="B13" s="224"/>
-      <c r="C13" s="225"/>
+      <c r="A13" s="214"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="215"/>
       <c r="D13" s="192"/>
       <c r="E13" s="192"/>
       <c r="F13" s="101"/>
@@ -6472,7 +7508,7 @@
       <c r="A17" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="214" t="s">
+      <c r="B17" s="226" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -6622,7 +7658,7 @@
     </row>
     <row r="18" spans="1:192" s="50" customFormat="1" ht="13.7" customHeight="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="215"/>
+      <c r="B18" s="227"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -43974,6 +45010,18 @@
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="L7:T7"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="L10:T10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="X13:AC13"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="X6:AC6"/>
@@ -43988,36 +45036,24 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="L7:T7"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="L8:T8"/>
-    <mergeCell ref="L10:T10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="X13:AC13"/>
   </mergeCells>
   <conditionalFormatting sqref="AN22:AO22 AO19:AO21 AN152:AO187 AN23:AN149 AO23:AO151">
-    <cfRule type="cellIs" dxfId="36" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN21">
-    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN150">
-    <cfRule type="cellIs" dxfId="34" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN151:AO151">
-    <cfRule type="cellIs" dxfId="33" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44034,11 +45070,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AB17">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:Z17">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AS19" r:id="rId1"/>
@@ -44142,182 +45178,1098 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C1" sqref="C1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="130" t="s">
-        <v>527</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A1" s="236" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="237" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1" s="156">
+        <v>0</v>
+      </c>
+      <c r="D1" s="156">
+        <v>0</v>
+      </c>
+      <c r="E1" s="156">
+        <v>0</v>
+      </c>
+      <c r="F1" s="156">
+        <v>0</v>
+      </c>
+      <c r="G1" s="156">
+        <v>0</v>
+      </c>
+      <c r="H1" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="C1" s="205">
+      <c r="I1" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J1" s="156">
+        <v>0</v>
+      </c>
+      <c r="K1" s="156">
+        <v>0</v>
+      </c>
+      <c r="L1" s="156">
+        <v>0</v>
+      </c>
+      <c r="M1" s="156">
+        <v>0</v>
+      </c>
+      <c r="N1" s="156">
+        <v>0</v>
+      </c>
+      <c r="O1" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q1" s="156">
+        <v>0</v>
+      </c>
+      <c r="R1" s="156">
+        <v>0</v>
+      </c>
+      <c r="S1" s="156">
+        <v>0</v>
+      </c>
+      <c r="T1" s="156">
+        <v>0</v>
+      </c>
+      <c r="U1" s="156">
+        <v>0</v>
+      </c>
+      <c r="V1" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W1" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A2" s="236" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="237" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="D2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="E2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="F2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="G2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="H2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="K2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="L2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="M2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="N2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="O2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="R2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="S2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="T2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="U2" s="208">
+        <v>463728</v>
+      </c>
+      <c r="V2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W2" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A3" s="238" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="237" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="D3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="E3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="F3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="G3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="H3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="O3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="R3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="S3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="T3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="U3" s="156">
+        <v>463074</v>
+      </c>
+      <c r="V3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W3" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A4" s="239" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" s="237" t="s">
+        <v>630</v>
+      </c>
+      <c r="C4" s="156">
+        <v>0</v>
+      </c>
+      <c r="D4" s="156">
+        <v>0</v>
+      </c>
+      <c r="E4" s="156">
+        <v>0</v>
+      </c>
+      <c r="F4" s="156">
+        <v>0</v>
+      </c>
+      <c r="G4" s="156">
+        <v>0</v>
+      </c>
+      <c r="H4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J4" s="156">
+        <v>0</v>
+      </c>
+      <c r="K4" s="156">
+        <v>0</v>
+      </c>
+      <c r="L4" s="156">
+        <v>0</v>
+      </c>
+      <c r="M4" s="156">
+        <v>0</v>
+      </c>
+      <c r="N4" s="156">
+        <v>0</v>
+      </c>
+      <c r="O4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q4" s="156">
+        <v>0</v>
+      </c>
+      <c r="R4" s="156">
+        <v>0</v>
+      </c>
+      <c r="S4" s="156">
+        <v>0</v>
+      </c>
+      <c r="T4" s="156">
+        <v>0</v>
+      </c>
+      <c r="U4" s="156">
+        <v>0</v>
+      </c>
+      <c r="V4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W4" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A5" s="236" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="237" t="s">
+        <v>630</v>
+      </c>
+      <c r="C5" s="205">
         <v>463637</v>
       </c>
-      <c r="D1" s="205">
+      <c r="D5" s="205">
         <v>463637</v>
       </c>
-      <c r="E1" s="205">
+      <c r="E5" s="205">
         <v>463637</v>
       </c>
-      <c r="F1" s="205">
-        <v>0</v>
-      </c>
-      <c r="G1" s="205">
+      <c r="F5" s="205">
         <v>463637</v>
       </c>
-      <c r="H1" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="I1" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="J1" s="205">
+      <c r="G5" s="205">
         <v>463637</v>
       </c>
-      <c r="K1" s="205">
+      <c r="H5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J5" s="205">
         <v>463637</v>
       </c>
-      <c r="L1" s="205">
-        <v>0</v>
-      </c>
-      <c r="M1" s="156">
-        <v>463074</v>
-      </c>
-      <c r="N1" s="205">
+      <c r="K5" s="205">
         <v>463637</v>
       </c>
-      <c r="O1" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="P1" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q1" s="205">
+      <c r="L5" s="205">
         <v>463637</v>
       </c>
-      <c r="R1" s="205">
+      <c r="M5" s="205">
         <v>463637</v>
       </c>
-      <c r="S1" s="205">
+      <c r="N5" s="205">
         <v>463637</v>
       </c>
-      <c r="T1" s="205">
+      <c r="O5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q5" s="205">
         <v>463637</v>
       </c>
-      <c r="U1" s="205">
-        <v>0</v>
-      </c>
-      <c r="V1" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="W1" s="205" t="s">
-        <v>631</v>
+      <c r="R5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="S5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="T5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="U5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="V5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W5" s="205" t="s">
+        <v>629</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="130" t="s">
+    <row r="6" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A6" s="236" t="s">
+        <v>522</v>
+      </c>
+      <c r="B6" s="237" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="156">
+        <v>0</v>
+      </c>
+      <c r="D6" s="156">
+        <v>0</v>
+      </c>
+      <c r="E6" s="205">
+        <v>0</v>
+      </c>
+      <c r="F6" s="205">
+        <v>0</v>
+      </c>
+      <c r="G6" s="207">
+        <v>0</v>
+      </c>
+      <c r="H6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J6" s="156">
+        <v>0</v>
+      </c>
+      <c r="K6" s="156">
+        <v>0</v>
+      </c>
+      <c r="L6" s="205">
+        <v>0</v>
+      </c>
+      <c r="M6" s="205">
+        <v>0</v>
+      </c>
+      <c r="N6" s="207">
+        <v>0</v>
+      </c>
+      <c r="O6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q6" s="156">
+        <v>0</v>
+      </c>
+      <c r="R6" s="156">
+        <v>0</v>
+      </c>
+      <c r="S6" s="205">
+        <v>0</v>
+      </c>
+      <c r="T6" s="205">
+        <v>0</v>
+      </c>
+      <c r="U6" s="207">
+        <v>0</v>
+      </c>
+      <c r="V6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W6" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A7" s="236" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" s="240" t="s">
+        <v>630</v>
+      </c>
+      <c r="C7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="D7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="E7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="F7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="G7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="H7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="K7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="L7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="M7" s="205">
+        <v>463175</v>
+      </c>
+      <c r="N7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="O7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="R7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="S7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="T7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="U7" s="205">
+        <v>463637</v>
+      </c>
+      <c r="V7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W7" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A8" s="236" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="237" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="D8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="E8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="F8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="G8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="H8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="K8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="L8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="M8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="N8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="O8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="R8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="S8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="T8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="U8" s="205">
+        <v>463071</v>
+      </c>
+      <c r="V8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W8" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A9" s="241" t="s">
+        <v>610</v>
+      </c>
+      <c r="B9" s="237" t="s">
+        <v>630</v>
+      </c>
+      <c r="C9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="D9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="E9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="F9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="G9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="H9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="O9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="R9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="S9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="T9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="U9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="V9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W9" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A10" s="241" t="s">
+        <v>611</v>
+      </c>
+      <c r="B10" s="237" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="D10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="E10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="F10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="G10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="H10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="O10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="R10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="S10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="T10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="U10" s="156">
+        <v>463074</v>
+      </c>
+      <c r="V10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W10" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A11" s="242" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" s="240" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="D11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="E11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="F11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="G11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="H11" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I11" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J11" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K11" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L11" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M11" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N11" s="156">
+        <v>463074</v>
+      </c>
+      <c r="O11" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P11" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="R11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="S11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="T11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="U11" s="243">
+        <v>463071</v>
+      </c>
+      <c r="V11" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W11" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A12" s="242" t="s">
         <v>634</v>
       </c>
-      <c r="B2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="D2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="E2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="F2" s="205">
-        <v>0</v>
-      </c>
-      <c r="G2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="H2" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="I2" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="J2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="K2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="L2" s="205">
-        <v>0</v>
-      </c>
-      <c r="M2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="N2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="O2" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="P2" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="R2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="S2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="T2" s="205">
-        <v>463637</v>
-      </c>
-      <c r="U2" s="205">
-        <v>0</v>
-      </c>
-      <c r="V2" s="205" t="s">
-        <v>631</v>
-      </c>
-      <c r="W2" s="205" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" t="s">
-        <v>506</v>
-      </c>
-      <c r="B4" t="s">
-        <v>633</v>
+      <c r="B12" s="237" t="s">
+        <v>635</v>
+      </c>
+      <c r="C12" s="243">
+        <v>463138</v>
+      </c>
+      <c r="D12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="E12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="F12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="G12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="H12" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I12" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="K12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="L12" s="156">
+        <v>463138</v>
+      </c>
+      <c r="M12" s="156">
+        <v>463138</v>
+      </c>
+      <c r="N12" s="156">
+        <v>463138</v>
+      </c>
+      <c r="O12" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P12" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q12" s="243">
+        <v>463138</v>
+      </c>
+      <c r="R12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="S12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="T12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="U12" s="243">
+        <v>463071</v>
+      </c>
+      <c r="V12" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W12" s="205" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange password="CA53" sqref="A1:A2" name="Staff and Projects_2_52_1_5_2_4_1_1_1_1_1_1_2_1_2"/>
+    <protectedRange password="CA53" sqref="J5" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4"/>
+    <protectedRange password="CA53" sqref="Q5 C5" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_1"/>
+    <protectedRange password="CA53" sqref="J8:N8" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_2"/>
+    <protectedRange password="CA53" sqref="Q8:U8 C8:G8" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_1_1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="C1:U1">
-    <cfRule type="cellIs" dxfId="10" priority="55" operator="lessThan">
+  <conditionalFormatting sqref="H2:I12 O1:P12 C1:U10">
+    <cfRule type="cellIs" dxfId="42" priority="222" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:U1">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:U4">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:I5">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:G5">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:N5">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:U5">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:P6">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G6">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:N6">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:U6">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:I7">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P7">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:G7">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:N7">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:U7">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:P8">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -44329,8 +46281,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:I1">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="C8:G8">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -44341,8 +46293,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:P1">
-    <cfRule type="colorScale" priority="59">
+  <conditionalFormatting sqref="J8:N8">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -44353,13 +46305,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:G2 J2:N2 Q2:U2">
-    <cfRule type="cellIs" dxfId="9" priority="35" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:U2">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="Q8:U8">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -44370,8 +46317,88 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:G2">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="H11:I11">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:P11">
+    <cfRule type="cellIs" dxfId="40" priority="39" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:G11">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:N11">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11:U11">
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:N12">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:K12">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I12">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:P12">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:R12">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:D12">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:F12">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -44382,8 +46409,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:N2">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="O6:P6">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -44394,13 +46421,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="O7:P7">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -44411,12 +46433,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="lessThan">
+  <conditionalFormatting sqref="O8:P8">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:P11">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="O12:P12">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:W12">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:W5">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -44428,7 +46472,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
+  <conditionalFormatting sqref="V6:W6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7:W7">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -44440,7 +46496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
+  <conditionalFormatting sqref="V8:W8">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -44452,29 +46508,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
+  <conditionalFormatting sqref="V11:W11">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="V12:W12">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="C1:G1">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -44486,12 +46530,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="C4:G4">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
+  <conditionalFormatting sqref="C5:G5">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -44503,12 +46554,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="C6:G6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2">
+  <conditionalFormatting sqref="C7:G7">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -44520,13 +46578,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C8:G8">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -44537,29 +46590,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="C11:G11">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+  <conditionalFormatting sqref="C12:D12">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44567,8 +46624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44667,7 +46724,7 @@
       <c r="A2" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="226" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -56261,7 +58318,7 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="Y137:Z137 T170:Z171 Y169:Z169 T94:Z136 Y93:Z93 T138:Z168 F4:Z92">
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56278,7 +58335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:H93 K93:L93 F94:L171">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56307,12 +58364,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T169:X169">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T93:X93">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56329,7 +58386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:J93">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56346,7 +58403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M138:S168 R137:S137 M170:S171 R169:S169 M94:S136 R93:S93">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56363,7 +58420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137:Q137">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56380,12 +58437,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M169:Q169">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93:Q93">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56402,7 +58459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137:U137">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56419,7 +58476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V137:X137">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64710,12 +66767,12 @@
     <protectedRange password="CA53" sqref="J80:L81 J66:L68 F87:G87 J47:L47 H62 K166:L166 J42:L42 J49:L63 H59 F60:H61 F63:H63 F88:H89 J83:L85 F84:H84 F79:L79 F83:G83 F80:H81 J73:L78 J70:L71 F74:H74 G75:H75 F76:H78 J44:L45 H73 F70:H71 F66:H68 F55:H57 F51:H53 F49:H49 F47:H47 F43:I43 F44:H45 F42:H42 F39:H40 J39:L40 F91:H98 J88:L89 I134:J134 J91:L98 M134:Q134 F90:Q90" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="F1:Q89">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:H90 K90:L90 F91:L168">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64744,7 +66801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:J90">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64761,7 +66818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135:Q165 M167:Q168 M91:Q133">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64778,7 +66835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64795,12 +66852,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M166:Q166">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90:Q90">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\selenium\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-510" yWindow="3525" windowWidth="20610" windowHeight="9300" tabRatio="422" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -17,12 +22,12 @@
     <definedName name="Data" localSheetId="0">#REF!</definedName>
     <definedName name="Data">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="635">
   <si>
     <t>Purchase Order Number:</t>
   </si>
@@ -1945,9 +1950,6 @@
     <t>Dtv@#1989</t>
   </si>
   <si>
-    <t>[Huyhoang]121314</t>
-  </si>
-  <si>
     <t>AdidaPhat12#</t>
   </si>
   <si>
@@ -1960,7 +1962,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
@@ -3681,70 +3683,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="31" borderId="21" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="31" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="18" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="18" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3768,6 +3706,70 @@
     </xf>
     <xf numFmtId="0" fontId="79" fillId="43" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="31" borderId="21" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="31" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="18" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="18" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="76">
@@ -3848,817 +3850,7 @@
     <cellStyle name="Обычный_DTV 2007 11 1 Projects" xfId="74"/>
     <cellStyle name="Обычный_HR20_DTV_TimeSheet - Jun-09" xfId="75"/>
   </cellStyles>
-  <dxfs count="132">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5770,7 +4962,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5802,9 +4994,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5836,6 +5029,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6011,7 +5205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6083,25 +5277,25 @@
       <c r="T1" s="173"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="222" t="s">
+      <c r="W1" s="237" t="s">
         <v>269</v>
       </c>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="223"/>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="224"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="239"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="225" t="s">
+      <c r="AF1" s="240" t="s">
         <v>269</v>
       </c>
-      <c r="AG1" s="225"/>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="225"/>
-      <c r="AJ1" s="225"/>
-      <c r="AK1" s="225"/>
+      <c r="AG1" s="240"/>
+      <c r="AH1" s="240"/>
+      <c r="AI1" s="240"/>
+      <c r="AJ1" s="240"/>
+      <c r="AK1" s="240"/>
       <c r="AL1" s="147"/>
       <c r="AM1" s="147"/>
       <c r="AN1" s="2"/>
@@ -6125,17 +5319,17 @@
       <c r="K2" s="112" t="s">
         <v>544</v>
       </c>
-      <c r="L2" s="216" t="s">
+      <c r="L2" s="234" t="s">
         <v>375</v>
       </c>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="235"/>
+      <c r="Q2" s="235"/>
+      <c r="R2" s="235"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="236"/>
       <c r="U2" s="104">
         <v>1</v>
       </c>
@@ -6143,14 +5337,14 @@
       <c r="W2" s="103" t="s">
         <v>374</v>
       </c>
-      <c r="X2" s="219" t="s">
+      <c r="X2" s="227" t="s">
         <v>288</v>
       </c>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="221"/>
+      <c r="Y2" s="228"/>
+      <c r="Z2" s="228"/>
+      <c r="AA2" s="228"/>
+      <c r="AB2" s="228"/>
+      <c r="AC2" s="229"/>
       <c r="AD2" s="104">
         <v>13</v>
       </c>
@@ -6194,17 +5388,17 @@
       <c r="K3" s="112" t="s">
         <v>543</v>
       </c>
-      <c r="L3" s="216" t="s">
+      <c r="L3" s="234" t="s">
         <v>376</v>
       </c>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="218"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="236"/>
       <c r="U3" s="104">
         <v>2</v>
       </c>
@@ -6212,14 +5406,14 @@
       <c r="W3" s="103" t="s">
         <v>291</v>
       </c>
-      <c r="X3" s="219" t="s">
+      <c r="X3" s="227" t="s">
         <v>292</v>
       </c>
-      <c r="Y3" s="220"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="220"/>
-      <c r="AC3" s="221"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="229"/>
       <c r="AD3" s="104">
         <v>14</v>
       </c>
@@ -6260,17 +5454,17 @@
       <c r="K4" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="L4" s="216" t="s">
+      <c r="L4" s="234" t="s">
         <v>271</v>
       </c>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
-      <c r="T4" s="218"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="236"/>
       <c r="U4" s="104">
         <v>3</v>
       </c>
@@ -6278,14 +5472,14 @@
       <c r="W4" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="X4" s="219" t="s">
+      <c r="X4" s="227" t="s">
         <v>344</v>
       </c>
-      <c r="Y4" s="220"/>
-      <c r="Z4" s="220"/>
-      <c r="AA4" s="220"/>
-      <c r="AB4" s="220"/>
-      <c r="AC4" s="221"/>
+      <c r="Y4" s="228"/>
+      <c r="Z4" s="228"/>
+      <c r="AA4" s="228"/>
+      <c r="AB4" s="228"/>
+      <c r="AC4" s="229"/>
       <c r="AD4" s="104">
         <v>15</v>
       </c>
@@ -6309,11 +5503,11 @@
       <c r="AX4" s="9"/>
     </row>
     <row r="5" spans="1:87" s="47" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="233"/>
       <c r="D5" s="192"/>
       <c r="E5" s="192"/>
       <c r="F5" s="101" t="s">
@@ -6326,17 +5520,17 @@
       <c r="K5" s="112" t="s">
         <v>547</v>
       </c>
-      <c r="L5" s="216" t="s">
+      <c r="L5" s="234" t="s">
         <v>272</v>
       </c>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="218"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
+      <c r="O5" s="235"/>
+      <c r="P5" s="235"/>
+      <c r="Q5" s="235"/>
+      <c r="R5" s="235"/>
+      <c r="S5" s="235"/>
+      <c r="T5" s="236"/>
       <c r="U5" s="104">
         <v>4</v>
       </c>
@@ -6344,14 +5538,14 @@
       <c r="W5" s="103" t="s">
         <v>294</v>
       </c>
-      <c r="X5" s="219" t="s">
+      <c r="X5" s="227" t="s">
         <v>293</v>
       </c>
-      <c r="Y5" s="220"/>
-      <c r="Z5" s="220"/>
-      <c r="AA5" s="220"/>
-      <c r="AB5" s="220"/>
-      <c r="AC5" s="221"/>
+      <c r="Y5" s="228"/>
+      <c r="Z5" s="228"/>
+      <c r="AA5" s="228"/>
+      <c r="AB5" s="228"/>
+      <c r="AC5" s="229"/>
       <c r="AD5" s="104">
         <v>16</v>
       </c>
@@ -6375,11 +5569,11 @@
       <c r="AX5" s="9"/>
     </row>
     <row r="6" spans="1:87" s="47" customFormat="1" ht="12.2" customHeight="1" outlineLevel="1">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="215"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="233"/>
       <c r="D6" s="192"/>
       <c r="E6" s="192"/>
       <c r="F6" s="101" t="s">
@@ -6392,17 +5586,17 @@
       <c r="K6" s="112" t="s">
         <v>546</v>
       </c>
-      <c r="L6" s="216" t="s">
+      <c r="L6" s="234" t="s">
         <v>273</v>
       </c>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="217"/>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="217"/>
-      <c r="S6" s="217"/>
-      <c r="T6" s="218"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="235"/>
+      <c r="R6" s="235"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="236"/>
       <c r="U6" s="104">
         <v>5</v>
       </c>
@@ -6410,14 +5604,14 @@
       <c r="W6" s="103" t="s">
         <v>354</v>
       </c>
-      <c r="X6" s="219" t="s">
+      <c r="X6" s="227" t="s">
         <v>355</v>
       </c>
-      <c r="Y6" s="220"/>
-      <c r="Z6" s="220"/>
-      <c r="AA6" s="220"/>
-      <c r="AB6" s="220"/>
-      <c r="AC6" s="221"/>
+      <c r="Y6" s="228"/>
+      <c r="Z6" s="228"/>
+      <c r="AA6" s="228"/>
+      <c r="AB6" s="228"/>
+      <c r="AC6" s="229"/>
       <c r="AD6" s="104">
         <v>17</v>
       </c>
@@ -6486,17 +5680,17 @@
       <c r="K7" s="143" t="s">
         <v>545</v>
       </c>
-      <c r="L7" s="228" t="s">
+      <c r="L7" s="224" t="s">
         <v>359</v>
       </c>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="229"/>
-      <c r="R7" s="229"/>
-      <c r="S7" s="229"/>
-      <c r="T7" s="230"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="225"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="225"/>
+      <c r="R7" s="225"/>
+      <c r="S7" s="225"/>
+      <c r="T7" s="226"/>
       <c r="U7" s="104">
         <v>6</v>
       </c>
@@ -6504,14 +5698,14 @@
       <c r="W7" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="X7" s="219" t="s">
+      <c r="X7" s="227" t="s">
         <v>298</v>
       </c>
-      <c r="Y7" s="220"/>
-      <c r="Z7" s="220"/>
-      <c r="AA7" s="220"/>
-      <c r="AB7" s="220"/>
-      <c r="AC7" s="221"/>
+      <c r="Y7" s="228"/>
+      <c r="Z7" s="228"/>
+      <c r="AA7" s="228"/>
+      <c r="AB7" s="228"/>
+      <c r="AC7" s="229"/>
       <c r="AD7" s="104">
         <v>18</v>
       </c>
@@ -6580,17 +5774,17 @@
       <c r="K8" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="L8" s="219" t="s">
+      <c r="L8" s="227" t="s">
         <v>290</v>
       </c>
-      <c r="M8" s="220"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="220"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="221"/>
+      <c r="M8" s="228"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="228"/>
+      <c r="P8" s="228"/>
+      <c r="Q8" s="228"/>
+      <c r="R8" s="228"/>
+      <c r="S8" s="228"/>
+      <c r="T8" s="229"/>
       <c r="U8" s="104">
         <v>7</v>
       </c>
@@ -6768,17 +5962,17 @@
       <c r="K10" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="L10" s="219" t="s">
+      <c r="L10" s="227" t="s">
         <v>295</v>
       </c>
-      <c r="M10" s="220"/>
-      <c r="N10" s="220"/>
-      <c r="O10" s="220"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="220"/>
-      <c r="R10" s="220"/>
-      <c r="S10" s="220"/>
-      <c r="T10" s="221"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="228"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="228"/>
+      <c r="R10" s="228"/>
+      <c r="S10" s="228"/>
+      <c r="T10" s="229"/>
       <c r="U10" s="104">
         <v>9</v>
       </c>
@@ -6786,14 +5980,14 @@
       <c r="W10" s="137" t="s">
         <v>352</v>
       </c>
-      <c r="X10" s="219" t="s">
+      <c r="X10" s="227" t="s">
         <v>353</v>
       </c>
-      <c r="Y10" s="220"/>
-      <c r="Z10" s="220"/>
-      <c r="AA10" s="220"/>
-      <c r="AB10" s="220"/>
-      <c r="AC10" s="221"/>
+      <c r="Y10" s="228"/>
+      <c r="Z10" s="228"/>
+      <c r="AA10" s="228"/>
+      <c r="AB10" s="228"/>
+      <c r="AC10" s="229"/>
       <c r="AD10" s="104">
         <v>21</v>
       </c>
@@ -6879,14 +6073,14 @@
       <c r="W11" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="X11" s="219" t="s">
+      <c r="X11" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="Y11" s="220"/>
-      <c r="Z11" s="220"/>
-      <c r="AA11" s="220"/>
-      <c r="AB11" s="220"/>
-      <c r="AC11" s="221"/>
+      <c r="Y11" s="228"/>
+      <c r="Z11" s="228"/>
+      <c r="AA11" s="228"/>
+      <c r="AB11" s="228"/>
+      <c r="AC11" s="229"/>
       <c r="AD11" s="104">
         <v>22</v>
       </c>
@@ -6941,9 +6135,9 @@
       <c r="CI11" s="20"/>
     </row>
     <row r="12" spans="1:87" s="47" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1">
-      <c r="A12" s="231"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="232"/>
+      <c r="A12" s="230"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="231"/>
       <c r="D12" s="190"/>
       <c r="E12" s="190"/>
       <c r="F12" s="153" t="s">
@@ -6978,14 +6172,14 @@
       <c r="W12" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="X12" s="219" t="s">
+      <c r="X12" s="227" t="s">
         <v>339</v>
       </c>
-      <c r="Y12" s="220"/>
-      <c r="Z12" s="220"/>
-      <c r="AA12" s="220"/>
-      <c r="AB12" s="220"/>
-      <c r="AC12" s="221"/>
+      <c r="Y12" s="228"/>
+      <c r="Z12" s="228"/>
+      <c r="AA12" s="228"/>
+      <c r="AB12" s="228"/>
+      <c r="AC12" s="229"/>
       <c r="AD12" s="104">
         <v>23</v>
       </c>
@@ -7040,9 +6234,9 @@
       <c r="CI12" s="20"/>
     </row>
     <row r="13" spans="1:87" s="47" customFormat="1" ht="12.2" customHeight="1">
-      <c r="A13" s="214"/>
-      <c r="B13" s="214"/>
-      <c r="C13" s="215"/>
+      <c r="A13" s="232"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="233"/>
       <c r="D13" s="192"/>
       <c r="E13" s="192"/>
       <c r="F13" s="101"/>
@@ -7053,17 +6247,17 @@
       <c r="K13" s="103" t="s">
         <v>299</v>
       </c>
-      <c r="L13" s="219" t="s">
+      <c r="L13" s="227" t="s">
         <v>342</v>
       </c>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="220"/>
-      <c r="S13" s="220"/>
-      <c r="T13" s="221"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="228"/>
+      <c r="O13" s="228"/>
+      <c r="P13" s="228"/>
+      <c r="Q13" s="228"/>
+      <c r="R13" s="228"/>
+      <c r="S13" s="228"/>
+      <c r="T13" s="229"/>
       <c r="U13" s="104">
         <v>12</v>
       </c>
@@ -7071,14 +6265,14 @@
       <c r="W13" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="X13" s="219" t="s">
+      <c r="X13" s="227" t="s">
         <v>293</v>
       </c>
-      <c r="Y13" s="220"/>
-      <c r="Z13" s="220"/>
-      <c r="AA13" s="220"/>
-      <c r="AB13" s="220"/>
-      <c r="AC13" s="221"/>
+      <c r="Y13" s="228"/>
+      <c r="Z13" s="228"/>
+      <c r="AA13" s="228"/>
+      <c r="AB13" s="228"/>
+      <c r="AC13" s="229"/>
       <c r="AD13" s="104">
         <v>24</v>
       </c>
@@ -7508,7 +6702,7 @@
       <c r="A17" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="226" t="s">
+      <c r="B17" s="222" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -7658,7 +6852,7 @@
     </row>
     <row r="18" spans="1:192" s="50" customFormat="1" ht="13.7" customHeight="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="227"/>
+      <c r="B18" s="223"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -45010,18 +44204,6 @@
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="L7:T7"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="L8:T8"/>
-    <mergeCell ref="L10:T10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="X13:AC13"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="X6:AC6"/>
@@ -45036,33 +44218,45 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="L7:T7"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="L10:T10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="X13:AC13"/>
   </mergeCells>
   <conditionalFormatting sqref="AN22:AO22 AO19:AO21 AN152:AO187 AN23:AN149 AO23:AO151">
-    <cfRule type="cellIs" dxfId="131" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN21">
-    <cfRule type="cellIs" dxfId="130" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN150">
-    <cfRule type="cellIs" dxfId="129" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN151:AO151">
-    <cfRule type="cellIs" dxfId="128" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AO187">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -45070,11 +44264,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AB17">
-    <cfRule type="duplicateValues" dxfId="127" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:Z17">
-    <cfRule type="duplicateValues" dxfId="125" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AS19" r:id="rId1"/>
@@ -45177,12 +44371,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -45190,26 +44382,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A1" s="236" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1" s="237" t="s">
+      <c r="A1" s="214" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="215" t="s">
         <v>630</v>
       </c>
-      <c r="C1" s="156">
-        <v>0</v>
-      </c>
-      <c r="D1" s="156">
-        <v>0</v>
-      </c>
-      <c r="E1" s="156">
-        <v>0</v>
-      </c>
-      <c r="F1" s="156">
-        <v>0</v>
-      </c>
-      <c r="G1" s="156">
-        <v>0</v>
+      <c r="C1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="D1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="E1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="F1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="G1" s="208">
+        <v>463728</v>
       </c>
       <c r="H1" s="205" t="s">
         <v>629</v>
@@ -45217,20 +44409,20 @@
       <c r="I1" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="J1" s="156">
-        <v>0</v>
-      </c>
-      <c r="K1" s="156">
-        <v>0</v>
-      </c>
-      <c r="L1" s="156">
-        <v>0</v>
-      </c>
-      <c r="M1" s="156">
-        <v>0</v>
-      </c>
-      <c r="N1" s="156">
-        <v>0</v>
+      <c r="J1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="K1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="L1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="M1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="N1" s="208">
+        <v>463728</v>
       </c>
       <c r="O1" s="205" t="s">
         <v>629</v>
@@ -45238,20 +44430,20 @@
       <c r="P1" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="Q1" s="156">
-        <v>0</v>
-      </c>
-      <c r="R1" s="156">
-        <v>0</v>
-      </c>
-      <c r="S1" s="156">
-        <v>0</v>
-      </c>
-      <c r="T1" s="156">
-        <v>0</v>
-      </c>
-      <c r="U1" s="156">
-        <v>0</v>
+      <c r="Q1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="R1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="S1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="T1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="U1" s="208">
+        <v>463728</v>
       </c>
       <c r="V1" s="205" t="s">
         <v>629</v>
@@ -45261,26 +44453,26 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A2" s="236" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2" s="237" t="s">
-        <v>630</v>
-      </c>
-      <c r="C2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="D2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="E2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="F2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="G2" s="208">
-        <v>463728</v>
+      <c r="A2" s="216" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="215" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="D2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="E2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="F2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="G2" s="156">
+        <v>463074</v>
       </c>
       <c r="H2" s="205" t="s">
         <v>629</v>
@@ -45288,20 +44480,20 @@
       <c r="I2" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="J2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="K2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="L2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="M2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="N2" s="208">
-        <v>463728</v>
+      <c r="J2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N2" s="156">
+        <v>463074</v>
       </c>
       <c r="O2" s="205" t="s">
         <v>629</v>
@@ -45309,20 +44501,20 @@
       <c r="P2" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="Q2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="R2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="S2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="T2" s="208">
-        <v>463728</v>
-      </c>
-      <c r="U2" s="208">
-        <v>463728</v>
+      <c r="Q2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="R2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="S2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="T2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="U2" s="156">
+        <v>463074</v>
       </c>
       <c r="V2" s="205" t="s">
         <v>629</v>
@@ -45332,26 +44524,26 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A3" s="238" t="s">
-        <v>384</v>
-      </c>
-      <c r="B3" s="237" t="s">
-        <v>631</v>
+      <c r="A3" s="217" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="215" t="s">
+        <v>630</v>
       </c>
       <c r="C3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="D3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="E3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="F3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="G3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="H3" s="205" t="s">
         <v>629</v>
@@ -45360,19 +44552,19 @@
         <v>629</v>
       </c>
       <c r="J3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="K3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="L3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="M3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="N3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="O3" s="205" t="s">
         <v>629</v>
@@ -45381,19 +44573,19 @@
         <v>629</v>
       </c>
       <c r="Q3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="R3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="S3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="T3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="U3" s="156">
-        <v>463074</v>
+        <v>0</v>
       </c>
       <c r="V3" s="205" t="s">
         <v>629</v>
@@ -45403,26 +44595,26 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A4" s="239" t="s">
-        <v>501</v>
-      </c>
-      <c r="B4" s="237" t="s">
+      <c r="A4" s="214" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="215" t="s">
         <v>630</v>
       </c>
-      <c r="C4" s="156">
-        <v>0</v>
-      </c>
-      <c r="D4" s="156">
-        <v>0</v>
-      </c>
-      <c r="E4" s="156">
-        <v>0</v>
-      </c>
-      <c r="F4" s="156">
-        <v>0</v>
-      </c>
-      <c r="G4" s="156">
-        <v>0</v>
+      <c r="C4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="D4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="E4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="F4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="G4" s="205">
+        <v>463637</v>
       </c>
       <c r="H4" s="205" t="s">
         <v>629</v>
@@ -45430,20 +44622,20 @@
       <c r="I4" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="J4" s="156">
-        <v>0</v>
-      </c>
-      <c r="K4" s="156">
-        <v>0</v>
-      </c>
-      <c r="L4" s="156">
-        <v>0</v>
-      </c>
-      <c r="M4" s="156">
-        <v>0</v>
-      </c>
-      <c r="N4" s="156">
-        <v>0</v>
+      <c r="J4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="K4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="L4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="M4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="N4" s="205">
+        <v>463637</v>
       </c>
       <c r="O4" s="205" t="s">
         <v>629</v>
@@ -45451,20 +44643,20 @@
       <c r="P4" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="Q4" s="156">
-        <v>0</v>
-      </c>
-      <c r="R4" s="156">
-        <v>0</v>
-      </c>
-      <c r="S4" s="156">
-        <v>0</v>
-      </c>
-      <c r="T4" s="156">
-        <v>0</v>
-      </c>
-      <c r="U4" s="156">
-        <v>0</v>
+      <c r="Q4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="R4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="S4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="T4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="U4" s="205">
+        <v>463637</v>
       </c>
       <c r="V4" s="205" t="s">
         <v>629</v>
@@ -45474,10 +44666,10 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A5" s="236" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5" s="237" t="s">
+      <c r="A5" s="214" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="218" t="s">
         <v>630</v>
       </c>
       <c r="C5" s="205">
@@ -45511,7 +44703,7 @@
         <v>463637</v>
       </c>
       <c r="M5" s="205">
-        <v>463637</v>
+        <v>463175</v>
       </c>
       <c r="N5" s="205">
         <v>463637</v>
@@ -45545,26 +44737,26 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A6" s="236" t="s">
-        <v>522</v>
-      </c>
-      <c r="B6" s="237" t="s">
-        <v>632</v>
-      </c>
-      <c r="C6" s="156">
-        <v>0</v>
-      </c>
-      <c r="D6" s="156">
-        <v>0</v>
+      <c r="A6" s="214" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="215" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="D6" s="205">
+        <v>463071</v>
       </c>
       <c r="E6" s="205">
-        <v>0</v>
+        <v>463071</v>
       </c>
       <c r="F6" s="205">
-        <v>0</v>
-      </c>
-      <c r="G6" s="207">
-        <v>0</v>
+        <v>463071</v>
+      </c>
+      <c r="G6" s="205">
+        <v>463071</v>
       </c>
       <c r="H6" s="205" t="s">
         <v>629</v>
@@ -45572,20 +44764,20 @@
       <c r="I6" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="J6" s="156">
-        <v>0</v>
-      </c>
-      <c r="K6" s="156">
-        <v>0</v>
+      <c r="J6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="K6" s="205">
+        <v>463071</v>
       </c>
       <c r="L6" s="205">
-        <v>0</v>
+        <v>463071</v>
       </c>
       <c r="M6" s="205">
-        <v>0</v>
-      </c>
-      <c r="N6" s="207">
-        <v>0</v>
+        <v>463071</v>
+      </c>
+      <c r="N6" s="205">
+        <v>463071</v>
       </c>
       <c r="O6" s="205" t="s">
         <v>629</v>
@@ -45593,20 +44785,20 @@
       <c r="P6" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="Q6" s="156">
-        <v>0</v>
-      </c>
-      <c r="R6" s="156">
-        <v>0</v>
+      <c r="Q6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="R6" s="205">
+        <v>463071</v>
       </c>
       <c r="S6" s="205">
-        <v>0</v>
+        <v>463071</v>
       </c>
       <c r="T6" s="205">
-        <v>0</v>
-      </c>
-      <c r="U6" s="207">
-        <v>0</v>
+        <v>463071</v>
+      </c>
+      <c r="U6" s="205">
+        <v>463071</v>
       </c>
       <c r="V6" s="205" t="s">
         <v>629</v>
@@ -45616,26 +44808,26 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A7" s="236" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="240" t="s">
+      <c r="A7" s="219" t="s">
+        <v>610</v>
+      </c>
+      <c r="B7" s="215" t="s">
         <v>630</v>
       </c>
-      <c r="C7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="D7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="E7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="F7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="G7" s="205">
-        <v>463637</v>
+      <c r="C7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="D7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="E7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="F7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="G7" s="156">
+        <v>463074</v>
       </c>
       <c r="H7" s="205" t="s">
         <v>629</v>
@@ -45643,20 +44835,20 @@
       <c r="I7" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="J7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="K7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="L7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="M7" s="205">
-        <v>463175</v>
-      </c>
-      <c r="N7" s="205">
-        <v>463637</v>
+      <c r="J7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N7" s="156">
+        <v>463074</v>
       </c>
       <c r="O7" s="205" t="s">
         <v>629</v>
@@ -45664,20 +44856,20 @@
       <c r="P7" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="Q7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="R7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="S7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="T7" s="205">
-        <v>463637</v>
-      </c>
-      <c r="U7" s="205">
-        <v>463637</v>
+      <c r="Q7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="R7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="S7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="T7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="U7" s="156">
+        <v>463074</v>
       </c>
       <c r="V7" s="205" t="s">
         <v>629</v>
@@ -45687,26 +44879,26 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A8" s="236" t="s">
-        <v>507</v>
-      </c>
-      <c r="B8" s="237" t="s">
+      <c r="A8" s="219" t="s">
+        <v>611</v>
+      </c>
+      <c r="B8" s="215" t="s">
         <v>630</v>
       </c>
-      <c r="C8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="D8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="E8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="F8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="G8" s="205">
-        <v>463071</v>
+      <c r="C8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="D8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="E8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="F8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="G8" s="156">
+        <v>463074</v>
       </c>
       <c r="H8" s="205" t="s">
         <v>629</v>
@@ -45714,20 +44906,20 @@
       <c r="I8" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="J8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="K8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="L8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="M8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="N8" s="205">
-        <v>463071</v>
+      <c r="J8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N8" s="156">
+        <v>463074</v>
       </c>
       <c r="O8" s="205" t="s">
         <v>629</v>
@@ -45735,20 +44927,20 @@
       <c r="P8" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="Q8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="R8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="S8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="T8" s="205">
-        <v>463071</v>
-      </c>
-      <c r="U8" s="205">
-        <v>463071</v>
+      <c r="Q8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="R8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="S8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="T8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="U8" s="156">
+        <v>463074</v>
       </c>
       <c r="V8" s="205" t="s">
         <v>629</v>
@@ -45758,26 +44950,26 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A9" s="241" t="s">
-        <v>610</v>
-      </c>
-      <c r="B9" s="237" t="s">
-        <v>630</v>
-      </c>
-      <c r="C9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="D9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="E9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="F9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="G9" s="156">
-        <v>463074</v>
+      <c r="A9" s="220" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="218" t="s">
+        <v>632</v>
+      </c>
+      <c r="C9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="D9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="E9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="F9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="G9" s="221">
+        <v>463071</v>
       </c>
       <c r="H9" s="205" t="s">
         <v>629</v>
@@ -45806,20 +44998,20 @@
       <c r="P9" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="Q9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="R9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="S9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="T9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="U9" s="156">
-        <v>463074</v>
+      <c r="Q9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="R9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="S9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="T9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="U9" s="221">
+        <v>463071</v>
       </c>
       <c r="V9" s="205" t="s">
         <v>629</v>
@@ -45829,26 +45021,26 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A10" s="241" t="s">
-        <v>611</v>
-      </c>
-      <c r="B10" s="237" t="s">
-        <v>630</v>
-      </c>
-      <c r="C10" s="156">
-        <v>463074</v>
-      </c>
-      <c r="D10" s="156">
-        <v>463074</v>
-      </c>
-      <c r="E10" s="156">
-        <v>463074</v>
-      </c>
-      <c r="F10" s="156">
-        <v>463074</v>
-      </c>
-      <c r="G10" s="156">
-        <v>463074</v>
+      <c r="A10" s="220" t="s">
+        <v>633</v>
+      </c>
+      <c r="B10" s="215" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" s="221">
+        <v>463138</v>
+      </c>
+      <c r="D10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="E10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="F10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="G10" s="221">
+        <v>463071</v>
       </c>
       <c r="H10" s="205" t="s">
         <v>629</v>
@@ -45856,20 +45048,20 @@
       <c r="I10" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="J10" s="156">
-        <v>463074</v>
-      </c>
-      <c r="K10" s="156">
-        <v>463074</v>
+      <c r="J10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="K10" s="221">
+        <v>463071</v>
       </c>
       <c r="L10" s="156">
-        <v>463074</v>
+        <v>463138</v>
       </c>
       <c r="M10" s="156">
-        <v>463074</v>
+        <v>463138</v>
       </c>
       <c r="N10" s="156">
-        <v>463074</v>
+        <v>463138</v>
       </c>
       <c r="O10" s="205" t="s">
         <v>629</v>
@@ -45877,188 +45069,94 @@
       <c r="P10" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="Q10" s="156">
-        <v>463074</v>
-      </c>
-      <c r="R10" s="156">
-        <v>463074</v>
-      </c>
-      <c r="S10" s="156">
-        <v>463074</v>
-      </c>
-      <c r="T10" s="156">
-        <v>463074</v>
-      </c>
-      <c r="U10" s="156">
-        <v>463074</v>
+      <c r="Q10" s="221">
+        <v>463138</v>
+      </c>
+      <c r="R10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="S10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="T10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="U10" s="221">
+        <v>463071</v>
       </c>
       <c r="V10" s="205" t="s">
         <v>629</v>
       </c>
       <c r="W10" s="205" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A11" s="242" t="s">
-        <v>459</v>
-      </c>
-      <c r="B11" s="240" t="s">
-        <v>633</v>
-      </c>
-      <c r="C11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="D11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="E11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="F11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="G11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="H11" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I11" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J11" s="156">
-        <v>463074</v>
-      </c>
-      <c r="K11" s="156">
-        <v>463074</v>
-      </c>
-      <c r="L11" s="156">
-        <v>463074</v>
-      </c>
-      <c r="M11" s="156">
-        <v>463074</v>
-      </c>
-      <c r="N11" s="156">
-        <v>463074</v>
-      </c>
-      <c r="O11" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P11" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="R11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="S11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="T11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="U11" s="243">
-        <v>463071</v>
-      </c>
-      <c r="V11" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W11" s="205" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A12" s="242" t="s">
-        <v>634</v>
-      </c>
-      <c r="B12" s="237" t="s">
-        <v>635</v>
-      </c>
-      <c r="C12" s="243">
-        <v>463138</v>
-      </c>
-      <c r="D12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="E12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="F12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="G12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="H12" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I12" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="K12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="L12" s="156">
-        <v>463138</v>
-      </c>
-      <c r="M12" s="156">
-        <v>463138</v>
-      </c>
-      <c r="N12" s="156">
-        <v>463138</v>
-      </c>
-      <c r="O12" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P12" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q12" s="243">
-        <v>463138</v>
-      </c>
-      <c r="R12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="S12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="T12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="U12" s="243">
-        <v>463071</v>
-      </c>
-      <c r="V12" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W12" s="205" t="s">
         <v>629</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange password="CA53" sqref="J5" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4"/>
-    <protectedRange password="CA53" sqref="Q5 C5" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_1"/>
-    <protectedRange password="CA53" sqref="J8:N8" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_2"/>
-    <protectedRange password="CA53" sqref="Q8:U8 C8:G8" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_1_1"/>
+    <protectedRange password="CA53" sqref="J4" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4"/>
+    <protectedRange password="CA53" sqref="Q4 C4" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_1"/>
+    <protectedRange password="CA53" sqref="J6:N6" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_2"/>
+    <protectedRange password="CA53" sqref="Q6:U6 C6:G6" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_1_1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="H2:I12 O1:P12 C1:U10">
-    <cfRule type="cellIs" dxfId="42" priority="222" operator="lessThan">
+  <conditionalFormatting sqref="H5:I10 O5:P10 C1:U8 V1:W10">
+    <cfRule type="cellIs" dxfId="43" priority="222" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:U1">
-    <cfRule type="colorScale" priority="107">
+  <conditionalFormatting sqref="Q3:U3">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I4">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:G4">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:N4">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46066,11 +45164,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:U4">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46078,11 +45176,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:I5">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46090,11 +45188,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46102,11 +45200,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46114,11 +45212,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:N5">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46126,11 +45224,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:U5">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46138,11 +45236,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46150,11 +45248,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46162,11 +45260,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="colorScale" priority="75">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46174,11 +45272,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:N6">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46186,223 +45284,115 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:U6">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
-    <cfRule type="colorScale" priority="69">
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:P9">
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:G9">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:N9">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:U9">
+    <cfRule type="cellIs" dxfId="38" priority="36" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:N10">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:K10">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:I10">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:P10">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:R10">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:D10">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:P7">
-    <cfRule type="colorScale" priority="67">
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:G7">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:N7">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:U7">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:P8">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:G8">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:N8">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:U8">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:I11">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11:P11">
-    <cfRule type="cellIs" dxfId="40" priority="39" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:G11">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:N11">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:U11">
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:N12">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:K12">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:I12">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:P12">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:R12">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D12">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:F12">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:P5">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46410,62 +45400,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:P7">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="O9:P9">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:P10">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4:W4">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:P8">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="V5:W5">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11:P11">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:P12">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:W12">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:W5">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46473,57 +45446,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:W6">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7:W7">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8:W8">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V11:W11">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="V9:W9">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12:W12">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+  <conditionalFormatting sqref="V10:W10">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G1">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="C3:G3">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46531,11 +45480,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G4">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46543,11 +45492,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -46555,63 +45504,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:G7">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:G8">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:G11">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="C9:G9">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D12">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="C10:D10">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46621,7 +45546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView topLeftCell="B80" workbookViewId="0">
@@ -46721,10 +45646,10 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="22.5">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="222" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -46822,8 +45747,8 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="234"/>
-      <c r="B3" s="235"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="243"/>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
@@ -58318,16 +57243,16 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="Y137:Z137 T170:Z171 Y169:Z169 T94:Z136 Y93:Z93 T138:Z168 F4:Z92">
-    <cfRule type="cellIs" dxfId="124" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:Z92 T94:Z101 Y93:Z93">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -58335,16 +57260,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:H93 K93:L93 F94:L171">
-    <cfRule type="cellIs" dxfId="123" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:L92 F94:L101 F93:H93 K93:L93">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -58354,9 +57279,9 @@
   <conditionalFormatting sqref="I137:J137">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -58364,21 +57289,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T169:X169">
-    <cfRule type="cellIs" dxfId="122" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T93:X93">
-    <cfRule type="cellIs" dxfId="121" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T93:X93">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -58386,16 +57311,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:J93">
-    <cfRule type="cellIs" dxfId="120" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:J93">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -58403,16 +57328,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M138:S168 R137:S137 M170:S171 R169:S169 M94:S136 R93:S93">
-    <cfRule type="cellIs" dxfId="119" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:S92 M94:S101 R93:S93">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -58420,16 +57345,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137:Q137">
-    <cfRule type="cellIs" dxfId="118" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137:Q137">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -58437,21 +57362,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M169:Q169">
-    <cfRule type="cellIs" dxfId="117" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93:Q93">
-    <cfRule type="cellIs" dxfId="116" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93:Q93">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -58459,16 +57384,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137:U137">
-    <cfRule type="cellIs" dxfId="115" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137:U137">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -58476,7 +57401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V137:X137">
-    <cfRule type="cellIs" dxfId="114" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58485,7 +57410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -66767,21 +65692,21 @@
     <protectedRange password="CA53" sqref="J80:L81 J66:L68 F87:G87 J47:L47 H62 K166:L166 J42:L42 J49:L63 H59 F60:H61 F63:H63 F88:H89 J83:L85 F84:H84 F79:L79 F83:G83 F80:H81 J73:L78 J70:L71 F74:H74 G75:H75 F76:H78 J44:L45 H73 F70:H71 F66:H68 F55:H57 F51:H53 F49:H49 F47:H47 F43:I43 F44:H45 F42:H42 F39:H40 J39:L40 F91:H98 J88:L89 I134:J134 J91:L98 M134:Q134 F90:Q90" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="F1:Q89">
-    <cfRule type="cellIs" dxfId="113" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:H90 K90:L90 F91:L168">
-    <cfRule type="cellIs" dxfId="112" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:L89 F91:L98 F90:H90 K90:L90">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -66791,9 +65716,9 @@
   <conditionalFormatting sqref="I134:J134">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -66801,16 +65726,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:J90">
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:J90">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -66818,16 +65743,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135:Q165 M167:Q168 M91:Q133">
-    <cfRule type="cellIs" dxfId="110" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:Q89 M91:Q98">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -66835,16 +65760,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
-    <cfRule type="cellIs" dxfId="109" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -66852,21 +65777,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M166:Q166">
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90:Q90">
-    <cfRule type="cellIs" dxfId="107" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90:Q90">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\selenium\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-510" yWindow="3525" windowWidth="20610" windowHeight="9300" tabRatio="422" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -16,18 +11,19 @@
     <sheet name="Sheet2" sheetId="72" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="73" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="74" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="75" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apr Week 1'!$A$1:$AB$285</definedName>
     <definedName name="Data" localSheetId="0">#REF!</definedName>
     <definedName name="Data">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="647">
   <si>
     <t>Purchase Order Number:</t>
   </si>
@@ -1958,11 +1954,47 @@
   <si>
     <t>Quynhhoa12!</t>
   </si>
+  <si>
+    <t>Trung Le Tran</t>
+  </si>
+  <si>
+    <t>Sinh Nhat Nguyen</t>
+  </si>
+  <si>
+    <t>sn6451</t>
+  </si>
+  <si>
+    <t>HoM88dnn</t>
+  </si>
+  <si>
+    <t>Huyen Thi Thanh Nguyen</t>
+  </si>
+  <si>
+    <t>hn629g</t>
+  </si>
+  <si>
+    <t>NgA87htn</t>
+  </si>
+  <si>
+    <t>Dung Van Tran</t>
+  </si>
+  <si>
+    <t>dt819d</t>
+  </si>
+  <si>
+    <t>Qun86dvt</t>
+  </si>
+  <si>
+    <t>Thoa Thi Uong</t>
+  </si>
+  <si>
+    <t>Th50thtu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
@@ -2492,7 +2524,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2752,8 +2784,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -3056,6 +3094,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3150,7 +3293,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="74" applyFont="1"/>
     <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="74" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3707,6 +3850,40 @@
     <xf numFmtId="0" fontId="79" fillId="43" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="31" borderId="21" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="31" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3722,45 +3899,11 @@
     <xf numFmtId="0" fontId="65" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="74" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="74" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="31" borderId="21" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="31" borderId="8" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="27" borderId="17" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -3770,6 +3913,30 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="27" borderId="18" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="76">
@@ -3850,7 +4017,647 @@
     <cellStyle name="Обычный_DTV 2007 11 1 Projects" xfId="74"/>
     <cellStyle name="Обычный_HR20_DTV_TimeSheet - Jun-09" xfId="75"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="115">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4962,7 +5769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4994,10 +5801,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5029,7 +5835,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5205,7 +6010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -5277,25 +6082,25 @@
       <c r="T1" s="173"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="237" t="s">
+      <c r="W1" s="230" t="s">
         <v>269</v>
       </c>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="239"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="231"/>
+      <c r="AA1" s="231"/>
+      <c r="AB1" s="231"/>
+      <c r="AC1" s="232"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="240" t="s">
+      <c r="AF1" s="233" t="s">
         <v>269</v>
       </c>
-      <c r="AG1" s="240"/>
-      <c r="AH1" s="240"/>
-      <c r="AI1" s="240"/>
-      <c r="AJ1" s="240"/>
-      <c r="AK1" s="240"/>
+      <c r="AG1" s="233"/>
+      <c r="AH1" s="233"/>
+      <c r="AI1" s="233"/>
+      <c r="AJ1" s="233"/>
+      <c r="AK1" s="233"/>
       <c r="AL1" s="147"/>
       <c r="AM1" s="147"/>
       <c r="AN1" s="2"/>
@@ -5319,17 +6124,17 @@
       <c r="K2" s="112" t="s">
         <v>544</v>
       </c>
-      <c r="L2" s="234" t="s">
+      <c r="L2" s="224" t="s">
         <v>375</v>
       </c>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
       <c r="U2" s="104">
         <v>1</v>
       </c>
@@ -5388,17 +6193,17 @@
       <c r="K3" s="112" t="s">
         <v>543</v>
       </c>
-      <c r="L3" s="234" t="s">
+      <c r="L3" s="224" t="s">
         <v>376</v>
       </c>
-      <c r="M3" s="235"/>
-      <c r="N3" s="235"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="235"/>
-      <c r="T3" s="236"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
       <c r="U3" s="104">
         <v>2</v>
       </c>
@@ -5454,17 +6259,17 @@
       <c r="K4" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="L4" s="234" t="s">
+      <c r="L4" s="224" t="s">
         <v>271</v>
       </c>
-      <c r="M4" s="235"/>
-      <c r="N4" s="235"/>
-      <c r="O4" s="235"/>
-      <c r="P4" s="235"/>
-      <c r="Q4" s="235"/>
-      <c r="R4" s="235"/>
-      <c r="S4" s="235"/>
-      <c r="T4" s="236"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="225"/>
+      <c r="P4" s="225"/>
+      <c r="Q4" s="225"/>
+      <c r="R4" s="225"/>
+      <c r="S4" s="225"/>
+      <c r="T4" s="226"/>
       <c r="U4" s="104">
         <v>3</v>
       </c>
@@ -5503,11 +6308,11 @@
       <c r="AX4" s="9"/>
     </row>
     <row r="5" spans="1:87" s="47" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="232"/>
-      <c r="C5" s="233"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="223"/>
       <c r="D5" s="192"/>
       <c r="E5" s="192"/>
       <c r="F5" s="101" t="s">
@@ -5520,17 +6325,17 @@
       <c r="K5" s="112" t="s">
         <v>547</v>
       </c>
-      <c r="L5" s="234" t="s">
+      <c r="L5" s="224" t="s">
         <v>272</v>
       </c>
-      <c r="M5" s="235"/>
-      <c r="N5" s="235"/>
-      <c r="O5" s="235"/>
-      <c r="P5" s="235"/>
-      <c r="Q5" s="235"/>
-      <c r="R5" s="235"/>
-      <c r="S5" s="235"/>
-      <c r="T5" s="236"/>
+      <c r="M5" s="225"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="225"/>
+      <c r="Q5" s="225"/>
+      <c r="R5" s="225"/>
+      <c r="S5" s="225"/>
+      <c r="T5" s="226"/>
       <c r="U5" s="104">
         <v>4</v>
       </c>
@@ -5569,11 +6374,11 @@
       <c r="AX5" s="9"/>
     </row>
     <row r="6" spans="1:87" s="47" customFormat="1" ht="12.2" customHeight="1" outlineLevel="1">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="233"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="223"/>
       <c r="D6" s="192"/>
       <c r="E6" s="192"/>
       <c r="F6" s="101" t="s">
@@ -5586,17 +6391,17 @@
       <c r="K6" s="112" t="s">
         <v>546</v>
       </c>
-      <c r="L6" s="234" t="s">
+      <c r="L6" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="235"/>
-      <c r="S6" s="235"/>
-      <c r="T6" s="236"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="225"/>
+      <c r="R6" s="225"/>
+      <c r="S6" s="225"/>
+      <c r="T6" s="226"/>
       <c r="U6" s="104">
         <v>5</v>
       </c>
@@ -5680,17 +6485,17 @@
       <c r="K7" s="143" t="s">
         <v>545</v>
       </c>
-      <c r="L7" s="224" t="s">
+      <c r="L7" s="236" t="s">
         <v>359</v>
       </c>
-      <c r="M7" s="225"/>
-      <c r="N7" s="225"/>
-      <c r="O7" s="225"/>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="225"/>
-      <c r="S7" s="225"/>
-      <c r="T7" s="226"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
+      <c r="O7" s="237"/>
+      <c r="P7" s="237"/>
+      <c r="Q7" s="237"/>
+      <c r="R7" s="237"/>
+      <c r="S7" s="237"/>
+      <c r="T7" s="238"/>
       <c r="U7" s="104">
         <v>6</v>
       </c>
@@ -6135,9 +6940,9 @@
       <c r="CI11" s="20"/>
     </row>
     <row r="12" spans="1:87" s="47" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1">
-      <c r="A12" s="230"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="231"/>
+      <c r="A12" s="239"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="240"/>
       <c r="D12" s="190"/>
       <c r="E12" s="190"/>
       <c r="F12" s="153" t="s">
@@ -6234,9 +7039,9 @@
       <c r="CI12" s="20"/>
     </row>
     <row r="13" spans="1:87" s="47" customFormat="1" ht="12.2" customHeight="1">
-      <c r="A13" s="232"/>
-      <c r="B13" s="232"/>
-      <c r="C13" s="233"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="223"/>
       <c r="D13" s="192"/>
       <c r="E13" s="192"/>
       <c r="F13" s="101"/>
@@ -6702,7 +7507,7 @@
       <c r="A17" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="234" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -6852,7 +7657,7 @@
     </row>
     <row r="18" spans="1:192" s="50" customFormat="1" ht="13.7" customHeight="1">
       <c r="A18" s="58"/>
-      <c r="B18" s="223"/>
+      <c r="B18" s="235"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -44204,6 +45009,18 @@
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="L7:T7"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="L10:T10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="X13:AC13"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="X6:AC6"/>
@@ -44218,45 +45035,33 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="L7:T7"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="L8:T8"/>
-    <mergeCell ref="L10:T10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="X13:AC13"/>
   </mergeCells>
   <conditionalFormatting sqref="AN22:AO22 AO19:AO21 AN152:AO187 AN23:AN149 AO23:AO151">
-    <cfRule type="cellIs" dxfId="50" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN21">
-    <cfRule type="cellIs" dxfId="49" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN150">
-    <cfRule type="cellIs" dxfId="48" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN151:AO151">
-    <cfRule type="cellIs" dxfId="47" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19:AO187">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -44264,11 +45069,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AB17">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:Z17">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AS19" r:id="rId1"/>
@@ -44371,10 +45176,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -44382,82 +45189,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A1" s="214" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="215" t="s">
-        <v>630</v>
-      </c>
-      <c r="C1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="D1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="E1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="F1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="G1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="H1" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I1" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="K1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="L1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="M1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="N1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="O1" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P1" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="R1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="S1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="T1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="U1" s="208">
-        <v>463728</v>
-      </c>
-      <c r="V1" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W1" s="205" t="s">
-        <v>629</v>
-      </c>
+      <c r="A1" s="244" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="246" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1" s="221">
+        <v>463071</v>
+      </c>
+      <c r="D1" s="221">
+        <v>463071</v>
+      </c>
+      <c r="E1" s="221">
+        <v>463071</v>
+      </c>
+      <c r="F1" s="221">
+        <v>463071</v>
+      </c>
+      <c r="G1" s="221">
+        <v>463071</v>
+      </c>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="205"/>
+      <c r="P1" s="205"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A2" s="216" t="s">
-        <v>384</v>
-      </c>
-      <c r="B2" s="215" t="s">
-        <v>631</v>
+    <row r="2" spans="1:23">
+      <c r="A2" s="250" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" s="251" t="s">
+        <v>632</v>
       </c>
       <c r="C2" s="156">
         <v>463074</v>
@@ -44474,622 +45249,236 @@
       <c r="G2" s="156">
         <v>463074</v>
       </c>
-      <c r="H2" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I2" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="K2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="L2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="M2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="N2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="O2" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P2" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="R2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="S2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="T2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="U2" s="156">
-        <v>463074</v>
-      </c>
-      <c r="V2" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W2" s="205" t="s">
-        <v>629</v>
-      </c>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A3" s="217" t="s">
-        <v>501</v>
-      </c>
-      <c r="B3" s="215" t="s">
-        <v>630</v>
+      <c r="A3" s="250" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3" s="251" t="s">
+        <v>632</v>
       </c>
       <c r="C3" s="156">
-        <v>0</v>
+        <v>463074</v>
       </c>
       <c r="D3" s="156">
-        <v>0</v>
+        <v>463074</v>
       </c>
       <c r="E3" s="156">
-        <v>0</v>
+        <v>463074</v>
       </c>
       <c r="F3" s="156">
-        <v>0</v>
+        <v>463074</v>
       </c>
       <c r="G3" s="156">
-        <v>0</v>
-      </c>
-      <c r="H3" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I3" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J3" s="156">
-        <v>0</v>
-      </c>
-      <c r="K3" s="156">
-        <v>0</v>
-      </c>
-      <c r="L3" s="156">
-        <v>0</v>
-      </c>
-      <c r="M3" s="156">
-        <v>0</v>
-      </c>
-      <c r="N3" s="156">
-        <v>0</v>
-      </c>
-      <c r="O3" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P3" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q3" s="156">
-        <v>0</v>
-      </c>
-      <c r="R3" s="156">
-        <v>0</v>
-      </c>
-      <c r="S3" s="156">
-        <v>0</v>
-      </c>
-      <c r="T3" s="156">
-        <v>0</v>
-      </c>
-      <c r="U3" s="156">
-        <v>0</v>
-      </c>
-      <c r="V3" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W3" s="205" t="s">
-        <v>629</v>
-      </c>
+        <v>463074</v>
+      </c>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A4" s="214" t="s">
-        <v>407</v>
-      </c>
-      <c r="B4" s="215" t="s">
-        <v>630</v>
-      </c>
-      <c r="C4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="D4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="E4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="F4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="G4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="H4" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I4" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="K4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="L4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="M4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="N4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="O4" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P4" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="R4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="S4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="T4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="U4" s="205">
-        <v>463637</v>
-      </c>
-      <c r="V4" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W4" s="205" t="s">
-        <v>629</v>
-      </c>
+      <c r="A4" s="214"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="205"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A5" s="214" t="s">
-        <v>506</v>
-      </c>
-      <c r="B5" s="218" t="s">
-        <v>630</v>
-      </c>
-      <c r="C5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="D5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="E5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="F5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="G5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="H5" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I5" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="K5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="L5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="M5" s="205">
-        <v>463175</v>
-      </c>
-      <c r="N5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="O5" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P5" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="R5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="S5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="T5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="U5" s="205">
-        <v>463637</v>
-      </c>
-      <c r="V5" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W5" s="205" t="s">
-        <v>629</v>
-      </c>
+      <c r="A5" s="214"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="205"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="205"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="205"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="205"/>
+      <c r="W5" s="205"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A6" s="214" t="s">
-        <v>507</v>
-      </c>
-      <c r="B6" s="215" t="s">
-        <v>630</v>
-      </c>
-      <c r="C6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="D6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="E6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="F6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="G6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="H6" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I6" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="K6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="L6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="M6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="N6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="O6" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P6" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="R6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="S6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="T6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="U6" s="205">
-        <v>463071</v>
-      </c>
-      <c r="V6" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W6" s="205" t="s">
-        <v>629</v>
-      </c>
+      <c r="A6" s="214"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205"/>
+      <c r="O6" s="205"/>
+      <c r="P6" s="205"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="205"/>
+      <c r="T6" s="205"/>
+      <c r="U6" s="205"/>
+      <c r="V6" s="205"/>
+      <c r="W6" s="205"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A7" s="219" t="s">
-        <v>610</v>
-      </c>
-      <c r="B7" s="215" t="s">
-        <v>630</v>
-      </c>
-      <c r="C7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="D7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="E7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="F7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="G7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="H7" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I7" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="K7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="L7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="M7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="N7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="O7" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P7" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="R7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="S7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="T7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="U7" s="156">
-        <v>463074</v>
-      </c>
-      <c r="V7" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W7" s="205" t="s">
-        <v>629</v>
-      </c>
+      <c r="A7" s="219"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="205"/>
+      <c r="I7" s="205"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="205"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="205"/>
+      <c r="W7" s="205"/>
     </row>
     <row r="8" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A8" s="219" t="s">
-        <v>611</v>
-      </c>
-      <c r="B8" s="215" t="s">
-        <v>630</v>
-      </c>
-      <c r="C8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="D8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="E8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="F8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="G8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="H8" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I8" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="K8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="L8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="M8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="N8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="O8" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P8" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="R8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="S8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="T8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="U8" s="156">
-        <v>463074</v>
-      </c>
-      <c r="V8" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W8" s="205" t="s">
-        <v>629</v>
-      </c>
+      <c r="A8" s="219"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="205"/>
+      <c r="P8" s="205"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="205"/>
+      <c r="W8" s="205"/>
     </row>
     <row r="9" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A9" s="220" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" s="218" t="s">
-        <v>632</v>
-      </c>
-      <c r="C9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="D9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="E9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="F9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="G9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="H9" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I9" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="K9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="L9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="M9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="N9" s="156">
-        <v>463074</v>
-      </c>
-      <c r="O9" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P9" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="R9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="S9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="T9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="U9" s="221">
-        <v>463071</v>
-      </c>
-      <c r="V9" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W9" s="205" t="s">
-        <v>629</v>
-      </c>
+      <c r="A9" s="220"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="205"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="205"/>
+      <c r="W9" s="205"/>
     </row>
     <row r="10" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A10" s="220" t="s">
-        <v>633</v>
-      </c>
-      <c r="B10" s="215" t="s">
-        <v>634</v>
-      </c>
-      <c r="C10" s="221">
-        <v>463138</v>
-      </c>
-      <c r="D10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="E10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="F10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="G10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="H10" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="I10" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="J10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="K10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="L10" s="156">
-        <v>463138</v>
-      </c>
-      <c r="M10" s="156">
-        <v>463138</v>
-      </c>
-      <c r="N10" s="156">
-        <v>463138</v>
-      </c>
-      <c r="O10" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="P10" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q10" s="221">
-        <v>463138</v>
-      </c>
-      <c r="R10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="S10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="T10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="U10" s="221">
-        <v>463071</v>
-      </c>
-      <c r="V10" s="205" t="s">
-        <v>629</v>
-      </c>
-      <c r="W10" s="205" t="s">
-        <v>629</v>
-      </c>
+      <c r="A10" s="220"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="221"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="221"/>
+      <c r="U10" s="221"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -45099,16 +45488,16 @@
     <protectedRange password="CA53" sqref="Q6:U6 C6:G6" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_1_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="H5:I10 O5:P10 C1:U8 V1:W10">
-    <cfRule type="cellIs" dxfId="43" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="228" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:U3">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45116,11 +45505,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I4">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45128,11 +45517,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45140,11 +45529,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G4">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45152,11 +45541,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:N4">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45164,11 +45553,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:U4">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45176,11 +45565,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:I5">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45188,11 +45577,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45200,11 +45589,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45212,11 +45601,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:N5">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45224,11 +45613,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:U5">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45236,11 +45625,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45248,11 +45637,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45260,11 +45649,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45272,11 +45661,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:N6">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45284,11 +45673,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:U6">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45296,91 +45685,91 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:I9">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P9">
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:G9">
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:N9">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:U9">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:N10">
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:K10">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I10">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:P10">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:R10">
-    <cfRule type="cellIs" dxfId="32" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:D10">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45388,11 +45777,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45400,11 +45789,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45412,21 +45801,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P9">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:P10">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:W4">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45434,11 +45823,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:W5">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45446,11 +45835,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:W6">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45458,21 +45847,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9:W9">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10:W10">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:G3">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45480,11 +45869,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G4">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45492,11 +45881,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45504,11 +45893,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -45516,27 +45905,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:G9">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:D10">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D1">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:G2">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:G3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45546,7 +45965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView topLeftCell="B80" workbookViewId="0">
@@ -45649,7 +46068,7 @@
       <c r="A2" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="234" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -57243,16 +57662,16 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="Y137:Z137 T170:Z171 Y169:Z169 T94:Z136 Y93:Z93 T138:Z168 F4:Z92">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:Z92 T94:Z101 Y93:Z93">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -57260,16 +57679,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:H93 K93:L93 F94:L171">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:L92 F94:L101 F93:H93 K93:L93">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -57279,9 +57698,9 @@
   <conditionalFormatting sqref="I137:J137">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -57289,21 +57708,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T169:X169">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T93:X93">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T93:X93">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -57311,16 +57730,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:J93">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93:J93">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -57328,16 +57747,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M138:S168 R137:S137 M170:S171 R169:S169 M94:S136 R93:S93">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:S92 M94:S101 R93:S93">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -57345,16 +57764,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137:Q137">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137:Q137">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -57362,21 +57781,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M169:Q169">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93:Q93">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93:Q93">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -57384,16 +57803,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137:U137">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137:U137">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -57401,7 +57820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V137:X137">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57410,7 +57829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -65692,21 +66111,21 @@
     <protectedRange password="CA53" sqref="J80:L81 J66:L68 F87:G87 J47:L47 H62 K166:L166 J42:L42 J49:L63 H59 F60:H61 F63:H63 F88:H89 J83:L85 F84:H84 F79:L79 F83:G83 F80:H81 J73:L78 J70:L71 F74:H74 G75:H75 F76:H78 J44:L45 H73 F70:H71 F66:H68 F55:H57 F51:H53 F49:H49 F47:H47 F43:I43 F44:H45 F42:H42 F39:H40 J39:L40 F91:H98 J88:L89 I134:J134 J91:L98 M134:Q134 F90:Q90" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="F1:Q89">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:H90 K90:L90 F91:L168">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:L89 F91:L98 F90:H90 K90:L90">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -65716,9 +66135,9 @@
   <conditionalFormatting sqref="I134:J134">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -65726,16 +66145,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:J90">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:J90">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -65743,16 +66162,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135:Q165 M167:Q168 M91:Q133">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:Q89 M91:Q98">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -65760,16 +66179,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134:Q134">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -65777,21 +66196,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M166:Q166">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90:Q90">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90:Q90">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -65800,4 +66219,1233 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A1" s="214" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="215" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="D1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="E1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="F1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="G1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="H1" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I1" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="K1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="L1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="M1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="N1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="O1" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="R1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="S1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="T1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="U1" s="208">
+        <v>463728</v>
+      </c>
+      <c r="V1" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W1" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A2" s="216" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="215" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="D2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="E2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="F2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="G2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="H2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="O2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="R2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="S2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="T2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="U2" s="156">
+        <v>463074</v>
+      </c>
+      <c r="V2" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W2" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A3" s="217" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="215" t="s">
+        <v>630</v>
+      </c>
+      <c r="C3" s="156">
+        <v>0</v>
+      </c>
+      <c r="D3" s="156">
+        <v>0</v>
+      </c>
+      <c r="E3" s="156">
+        <v>0</v>
+      </c>
+      <c r="F3" s="156">
+        <v>0</v>
+      </c>
+      <c r="G3" s="156">
+        <v>0</v>
+      </c>
+      <c r="H3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J3" s="156">
+        <v>0</v>
+      </c>
+      <c r="K3" s="156">
+        <v>0</v>
+      </c>
+      <c r="L3" s="156">
+        <v>0</v>
+      </c>
+      <c r="M3" s="156">
+        <v>0</v>
+      </c>
+      <c r="N3" s="156">
+        <v>0</v>
+      </c>
+      <c r="O3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q3" s="156">
+        <v>0</v>
+      </c>
+      <c r="R3" s="156">
+        <v>0</v>
+      </c>
+      <c r="S3" s="156">
+        <v>0</v>
+      </c>
+      <c r="T3" s="156">
+        <v>0</v>
+      </c>
+      <c r="U3" s="156">
+        <v>0</v>
+      </c>
+      <c r="V3" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W3" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A4" s="214" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="215" t="s">
+        <v>630</v>
+      </c>
+      <c r="C4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="D4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="E4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="F4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="G4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="H4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="K4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="L4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="M4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="N4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="O4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="R4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="S4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="T4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="U4" s="205">
+        <v>463637</v>
+      </c>
+      <c r="V4" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W4" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A5" s="214" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="218" t="s">
+        <v>630</v>
+      </c>
+      <c r="C5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="D5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="E5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="F5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="G5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="H5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="K5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="L5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="M5" s="205">
+        <v>463175</v>
+      </c>
+      <c r="N5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="O5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="R5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="S5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="T5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="U5" s="205">
+        <v>463637</v>
+      </c>
+      <c r="V5" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W5" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A6" s="214" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="215" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="D6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="E6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="F6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="G6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="H6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="K6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="L6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="M6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="N6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="O6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="R6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="S6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="T6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="U6" s="205">
+        <v>463071</v>
+      </c>
+      <c r="V6" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W6" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A7" s="219" t="s">
+        <v>610</v>
+      </c>
+      <c r="B7" s="215" t="s">
+        <v>630</v>
+      </c>
+      <c r="C7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="D7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="E7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="F7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="G7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="H7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="O7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="R7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="S7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="T7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="U7" s="156">
+        <v>463074</v>
+      </c>
+      <c r="V7" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W7" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="13.5" thickBot="1">
+      <c r="A8" s="219" t="s">
+        <v>611</v>
+      </c>
+      <c r="B8" s="215" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="D8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="E8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="F8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="G8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="H8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="O8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="R8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="S8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="T8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="U8" s="156">
+        <v>463074</v>
+      </c>
+      <c r="V8" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W8" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A9" s="220" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="218" t="s">
+        <v>632</v>
+      </c>
+      <c r="C9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="D9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="E9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="F9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="G9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="H9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="K9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="L9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="M9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="N9" s="156">
+        <v>463074</v>
+      </c>
+      <c r="O9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="R9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="S9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="T9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="U9" s="221">
+        <v>463071</v>
+      </c>
+      <c r="V9" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W9" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A10" s="220" t="s">
+        <v>633</v>
+      </c>
+      <c r="B10" s="215" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" s="221">
+        <v>463138</v>
+      </c>
+      <c r="D10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="E10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="F10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="G10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="H10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="I10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="J10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="K10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="L10" s="156">
+        <v>463138</v>
+      </c>
+      <c r="M10" s="156">
+        <v>463138</v>
+      </c>
+      <c r="N10" s="156">
+        <v>463138</v>
+      </c>
+      <c r="O10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="P10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q10" s="221">
+        <v>463138</v>
+      </c>
+      <c r="R10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="S10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="T10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="U10" s="221">
+        <v>463071</v>
+      </c>
+      <c r="V10" s="205" t="s">
+        <v>629</v>
+      </c>
+      <c r="W10" s="205" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A11" s="245" t="s">
+        <v>635</v>
+      </c>
+      <c r="B11" s="244" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="246" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A12" s="245" t="s">
+        <v>636</v>
+      </c>
+      <c r="B12" s="244" t="s">
+        <v>637</v>
+      </c>
+      <c r="C12" s="246" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="39" thickBot="1">
+      <c r="A13" s="245" t="s">
+        <v>639</v>
+      </c>
+      <c r="B13" s="244" t="s">
+        <v>640</v>
+      </c>
+      <c r="C13" s="246" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="26.25" thickBot="1">
+      <c r="A14" s="245" t="s">
+        <v>642</v>
+      </c>
+      <c r="B14" s="244" t="s">
+        <v>643</v>
+      </c>
+      <c r="C14" s="246" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="25.5">
+      <c r="A15" s="247" t="s">
+        <v>645</v>
+      </c>
+      <c r="B15" s="248" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="249" t="s">
+        <v>646</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange password="CA53" sqref="J4" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4"/>
+    <protectedRange password="CA53" sqref="Q4 C4" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_1"/>
+    <protectedRange password="CA53" sqref="J6:N6" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_2"/>
+    <protectedRange password="CA53" sqref="Q6:U6 C6:G6" name="Staff and Projects_2_52_1_5_2_4_1_2_1_1_2_1_2_4_1_1"/>
+  </protectedRanges>
+  <conditionalFormatting sqref="H1:I10 C1:G8 O1:P10 J1:N8 Q1:U8 V1:W10">
+    <cfRule type="cellIs" dxfId="63" priority="52" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:U3">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I4">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:G4">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:N4">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:U4">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:I5">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:G5">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:N5">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:U5">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:P6">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G6">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:N6">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:U6">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:P9">
+    <cfRule type="cellIs" dxfId="59" priority="34" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:G9">
+    <cfRule type="cellIs" dxfId="57" priority="33" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:N9">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:U9">
+    <cfRule type="cellIs" dxfId="53" priority="31" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:N10">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="49" priority="29" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:K10">
+    <cfRule type="cellIs" dxfId="47" priority="28" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:I10">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:P10">
+    <cfRule type="cellIs" dxfId="43" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:R10">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="cellIs" dxfId="35" priority="22" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:D10">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:P6">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:P9">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:P10">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4:W4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:W5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6:W6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9:W9">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10:W10">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:G3">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:G4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:G5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:G9">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:D10">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>